--- a/Raw Input Data/Processing/Masking_Tool_Input_Excel_v4_Consolidated.xlsx
+++ b/Raw Input Data/Processing/Masking_Tool_Input_Excel_v4_Consolidated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrilyau/Documents/FORMS/HASE/Fraud Investigation/HASE Masked Data/Processing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BDF94B-2884-B642-BB48-EF540A40CDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E2AE73-FD8E-41F3-8E95-12C695713250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8900" yWindow="-28300" windowWidth="51200" windowHeight="26600" activeTab="10" xr2:uid="{62A6D20C-1BCA-9641-AAE7-542CC13A6031}"/>
+    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="6" xr2:uid="{62A6D20C-1BCA-9641-AAE7-542CC13A6031}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC_General" sheetId="1" r:id="rId1"/>
@@ -1009,7 +1009,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2436,6 +2435,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> YEUNG KA</t>
@@ -2445,6 +2445,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>I</t>
@@ -2464,6 +2465,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>CHAN TAI MAN</t>
@@ -3158,6 +3160,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>111-111111-101</t>
@@ -3177,6 +3180,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>666-66666-601</t>
@@ -3196,6 +3200,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> YEUNG KA</t>
@@ -3215,6 +3220,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>CHAN, TAIMAN</t>
@@ -3239,6 +3245,7 @@
         <sz val="20"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>666-66666-601</t>
@@ -3258,6 +3265,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>YEUNG KAI</t>
@@ -3277,6 +3285,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">CHAN, TAIMAN </t>
@@ -3310,6 +3319,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>XIE PANGAN</t>
@@ -3753,7 +3763,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3779,18 +3788,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3816,12 +3828,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3961,15 +3975,6 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4001,6 +4006,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -4361,40 +4375,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C6B690-07A1-EE47-8B95-3D00B531DF4D}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="J4" workbookViewId="0">
       <selection activeCell="D20" sqref="D20:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="37"/>
+      <c r="C1" s="50"/>
       <c r="D1" t="s">
         <v>101</v>
       </c>
@@ -4402,8 +4416,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -4456,7 +4470,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -4508,7 +4522,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>299</v>
       </c>
@@ -4561,7 +4575,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>299</v>
       </c>
@@ -4614,7 +4628,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>305</v>
       </c>
@@ -4670,7 +4684,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -4726,7 +4740,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4779,7 +4793,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -4832,7 +4846,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -4885,7 +4899,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>935</v>
       </c>
@@ -4941,7 +4955,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1032</v>
       </c>
@@ -4994,7 +5008,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>840</v>
       </c>
@@ -5047,7 +5061,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -5100,7 +5114,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -5153,7 +5167,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -5206,7 +5220,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>850</v>
       </c>
@@ -5256,7 +5270,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>854</v>
       </c>
@@ -5309,7 +5323,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>862</v>
       </c>
@@ -5362,7 +5376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1052</v>
       </c>
@@ -5375,7 +5389,7 @@
       <c r="D20" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="46">
         <v>45663</v>
       </c>
       <c r="F20" t="s">
@@ -5412,7 +5426,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>867</v>
       </c>
@@ -5465,147 +5479,147 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
@@ -5635,24 +5649,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8BB366-1289-4242-A21A-6A02CB27BBC3}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -5681,7 +5695,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -5707,7 +5721,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5733,7 +5747,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -5759,7 +5773,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>9</v>
       </c>
@@ -5785,7 +5799,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>10</v>
       </c>
@@ -5811,7 +5825,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>10</v>
       </c>
@@ -5837,7 +5851,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>11</v>
       </c>
@@ -5863,7 +5877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>12</v>
       </c>
@@ -5889,7 +5903,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>12</v>
       </c>
@@ -5915,7 +5929,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>14</v>
       </c>
@@ -5941,7 +5955,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>14</v>
       </c>
@@ -5967,7 +5981,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>17</v>
       </c>
@@ -5993,7 +6007,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>17</v>
       </c>
@@ -6019,7 +6033,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>17</v>
       </c>
@@ -6045,7 +6059,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>18</v>
       </c>
@@ -6071,7 +6085,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>18</v>
       </c>
@@ -6097,7 +6111,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>21</v>
       </c>
@@ -6123,7 +6137,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>28</v>
       </c>
@@ -6149,7 +6163,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -6175,7 +6189,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -6201,7 +6215,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>28</v>
       </c>
@@ -6227,7 +6241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>30</v>
       </c>
@@ -6253,7 +6267,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>31</v>
       </c>
@@ -6279,7 +6293,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>32</v>
       </c>
@@ -6305,7 +6319,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>33</v>
       </c>
@@ -6334,7 +6348,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>33</v>
       </c>
@@ -6360,7 +6374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>33</v>
       </c>
@@ -6386,7 +6400,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>38</v>
       </c>
@@ -6412,7 +6426,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>38</v>
       </c>
@@ -6438,7 +6452,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>40</v>
       </c>
@@ -6464,7 +6478,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>42</v>
       </c>
@@ -6493,7 +6507,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>42</v>
       </c>
@@ -6522,7 +6536,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43</v>
       </c>
@@ -6548,7 +6562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>44</v>
       </c>
@@ -6574,7 +6588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>44</v>
       </c>
@@ -6600,7 +6614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>46</v>
       </c>
@@ -6626,7 +6640,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>47</v>
       </c>
@@ -6652,7 +6666,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>47</v>
       </c>
@@ -6699,82 +6713,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F6476C-0B6D-4742-8700-8877B2098082}">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="130.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="103" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="92.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="92.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="37" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6857,7 +6871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -6943,7 +6957,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -7029,7 +7043,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -7115,7 +7129,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -7201,7 +7215,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -7287,7 +7301,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -7373,7 +7387,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -7459,7 +7473,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -7545,7 +7559,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -7631,7 +7645,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -7714,7 +7728,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -7797,7 +7811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -7883,7 +7897,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>987</v>
       </c>
@@ -7966,7 +7980,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>987</v>
       </c>
@@ -8049,7 +8063,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1032</v>
       </c>
@@ -8135,7 +8149,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -8221,7 +8235,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -8304,7 +8318,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -8390,7 +8404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>904</v>
       </c>
@@ -8476,7 +8490,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>904</v>
       </c>
@@ -8556,7 +8570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1052</v>
       </c>
@@ -8639,7 +8653,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1079</v>
       </c>
@@ -8722,7 +8736,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1101</v>
       </c>
@@ -8762,7 +8776,7 @@
       <c r="M25" t="s">
         <v>337</v>
       </c>
-      <c r="N25" s="51" t="s">
+      <c r="N25" s="48" t="s">
         <v>1108</v>
       </c>
       <c r="O25" t="s">
@@ -8808,139 +8822,139 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
@@ -8995,109 +9009,109 @@
       <selection activeCell="D47" sqref="D47:AF47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="43.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.125" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37" t="s">
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="50"/>
+      <c r="AB1" s="50"/>
+      <c r="AC1" s="50"/>
+      <c r="AD1" s="50"/>
+      <c r="AE1" s="50"/>
+      <c r="AF1" s="50"/>
+      <c r="AG1" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A2" s="36"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="50"/>
+      <c r="AO1" s="50"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="50"/>
+      <c r="AR1" s="50"/>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -9228,7 +9242,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -9296,7 +9310,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>292</v>
       </c>
@@ -9373,7 +9387,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>293</v>
       </c>
@@ -9439,7 +9453,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>313</v>
       </c>
@@ -9505,7 +9519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>313</v>
       </c>
@@ -9571,7 +9585,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>313</v>
       </c>
@@ -9637,7 +9651,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>305</v>
       </c>
@@ -9694,7 +9708,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -9751,7 +9765,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -9808,7 +9822,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -9865,7 +9879,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -9928,7 +9942,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -9994,7 +10008,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -10060,7 +10074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -10126,7 +10140,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -10192,7 +10206,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -10258,7 +10272,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -10324,7 +10338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -10390,7 +10404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -10459,7 +10473,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>974</v>
       </c>
@@ -10528,7 +10542,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>974</v>
       </c>
@@ -10600,7 +10614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>974</v>
       </c>
@@ -10666,7 +10680,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>983</v>
       </c>
@@ -10735,7 +10749,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>983</v>
       </c>
@@ -10804,7 +10818,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>987</v>
       </c>
@@ -10873,7 +10887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>987</v>
       </c>
@@ -10942,7 +10956,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>987</v>
       </c>
@@ -11011,7 +11025,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>987</v>
       </c>
@@ -11080,7 +11094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>987</v>
       </c>
@@ -11149,7 +11163,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11215,7 +11229,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11281,7 +11295,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11347,7 +11361,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11413,7 +11427,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>874</v>
       </c>
@@ -11479,7 +11493,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -11545,7 +11559,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -11611,7 +11625,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -11677,7 +11691,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -11743,7 +11757,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>850</v>
       </c>
@@ -11809,7 +11823,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>890</v>
       </c>
@@ -11875,7 +11889,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>911</v>
       </c>
@@ -11941,7 +11955,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1052</v>
       </c>
@@ -12007,7 +12021,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>932</v>
       </c>
@@ -12073,7 +12087,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>932</v>
       </c>
@@ -12139,7 +12153,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1101</v>
       </c>
@@ -12202,7 +12216,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="X48" s="2"/>
@@ -12210,7 +12224,7 @@
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="X49" s="2"/>
@@ -12218,7 +12232,7 @@
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="X50" s="2"/>
@@ -12226,7 +12240,7 @@
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="X51" s="2"/>
@@ -12234,7 +12248,7 @@
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="X52" s="2"/>
@@ -12242,7 +12256,7 @@
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="X53" s="2"/>
@@ -12250,7 +12264,7 @@
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="X54" s="2"/>
@@ -12258,7 +12272,7 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="X55" s="2"/>
@@ -12266,7 +12280,7 @@
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="X56" s="2"/>
@@ -12274,7 +12288,7 @@
       <c r="AA56" s="7"/>
       <c r="AB56" s="7"/>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="X57" s="2"/>
@@ -12282,7 +12296,7 @@
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="X58" s="2"/>
@@ -12290,7 +12304,7 @@
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="X59" s="2"/>
@@ -12298,7 +12312,7 @@
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="X60" s="2"/>
@@ -12306,7 +12320,7 @@
       <c r="AA60" s="7"/>
       <c r="AB60" s="7"/>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="X61" s="2"/>
@@ -12314,7 +12328,7 @@
       <c r="AA61" s="7"/>
       <c r="AB61" s="7"/>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="X62" s="2"/>
@@ -12322,7 +12336,7 @@
       <c r="AA62" s="7"/>
       <c r="AB62" s="7"/>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="X63" s="2"/>
@@ -12330,7 +12344,7 @@
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="X64" s="2"/>
@@ -12338,7 +12352,7 @@
       <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="X65" s="2"/>
@@ -12346,7 +12360,7 @@
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="X66" s="2"/>
@@ -12354,7 +12368,7 @@
       <c r="AA66" s="7"/>
       <c r="AB66" s="7"/>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="X67" s="2"/>
@@ -12362,7 +12376,7 @@
       <c r="AA67" s="7"/>
       <c r="AB67" s="7"/>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="X68" s="2"/>
@@ -12370,7 +12384,7 @@
       <c r="AA68" s="7"/>
       <c r="AB68" s="7"/>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="X69" s="2"/>
@@ -12378,7 +12392,7 @@
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="X70" s="2"/>
@@ -12386,7 +12400,7 @@
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="X71" s="2"/>
@@ -12394,7 +12408,7 @@
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
     </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="X72" s="2"/>
@@ -12402,7 +12416,7 @@
       <c r="AA72" s="7"/>
       <c r="AB72" s="7"/>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="X73" s="2"/>
@@ -12410,7 +12424,7 @@
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
     </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="X74" s="2"/>
@@ -12418,7 +12432,7 @@
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
     </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="X75" s="2"/>
@@ -12426,7 +12440,7 @@
       <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
     </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="X76" s="2"/>
@@ -12434,7 +12448,7 @@
       <c r="AA76" s="7"/>
       <c r="AB76" s="7"/>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="X77" s="2"/>
@@ -12442,7 +12456,7 @@
       <c r="AA77" s="7"/>
       <c r="AB77" s="7"/>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="X78" s="2"/>
@@ -12450,7 +12464,7 @@
       <c r="AA78" s="7"/>
       <c r="AB78" s="7"/>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="X79" s="2"/>
@@ -12458,7 +12472,7 @@
       <c r="AA79" s="7"/>
       <c r="AB79" s="7"/>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="X80" s="2"/>
@@ -12466,7 +12480,7 @@
       <c r="AA80" s="7"/>
       <c r="AB80" s="7"/>
     </row>
-    <row r="81" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="X81" s="2"/>
@@ -12551,33 +12565,33 @@
       <selection activeCell="P47" sqref="A47:P47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="13.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -12651,7 +12665,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -12695,7 +12709,7 @@
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -12739,7 +12753,7 @@
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -12783,7 +12797,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -12827,7 +12841,7 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -12869,7 +12883,7 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -12911,7 +12925,7 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -12955,7 +12969,7 @@
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -12997,7 +13011,7 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>13</v>
       </c>
@@ -13051,7 +13065,7 @@
       </c>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>15</v>
       </c>
@@ -13095,7 +13109,7 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>18</v>
       </c>
@@ -13137,7 +13151,7 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -13164,7 +13178,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
@@ -13191,7 +13205,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23</v>
       </c>
@@ -13218,7 +13232,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -13245,7 +13259,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -13272,7 +13286,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>24</v>
       </c>
@@ -13314,7 +13328,7 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>24</v>
       </c>
@@ -13356,7 +13370,7 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>24</v>
       </c>
@@ -13398,7 +13412,7 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25</v>
       </c>
@@ -13425,7 +13439,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -13452,7 +13466,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>27</v>
       </c>
@@ -13479,7 +13493,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>27</v>
       </c>
@@ -13506,7 +13520,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>29</v>
       </c>
@@ -13533,7 +13547,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>29</v>
       </c>
@@ -13560,7 +13574,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>30</v>
       </c>
@@ -13587,7 +13601,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
@@ -13614,7 +13628,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -13641,7 +13655,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -13668,7 +13682,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13695,7 +13709,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13722,7 +13736,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -13749,7 +13763,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -13776,7 +13790,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -13803,7 +13817,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>32</v>
       </c>
@@ -13845,7 +13859,7 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -13887,7 +13901,7 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -13929,7 +13943,7 @@
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -13971,7 +13985,7 @@
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -14013,7 +14027,7 @@
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -14055,7 +14069,7 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -14097,7 +14111,7 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>44</v>
       </c>
@@ -14139,7 +14153,7 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>46</v>
       </c>
@@ -14166,7 +14180,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>48</v>
       </c>
@@ -14208,7 +14222,7 @@
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>48</v>
       </c>
@@ -14250,7 +14264,7 @@
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50</v>
       </c>
@@ -14274,559 +14288,559 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J209" s="2"/>
     </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J211" s="2"/>
     </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J227" s="2"/>
     </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J229" s="2"/>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J232" s="2"/>
     </row>
   </sheetData>
@@ -14867,13 +14881,13 @@
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -14887,7 +14901,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -14901,7 +14915,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
@@ -14915,7 +14929,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>84</v>
@@ -14927,7 +14941,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>70</v>
       </c>
@@ -14935,7 +14949,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
@@ -14946,7 +14960,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -14957,7 +14971,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
@@ -14968,12 +14982,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -14981,7 +14995,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>76</v>
       </c>
@@ -14989,7 +15003,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>64</v>
       </c>
@@ -14997,7 +15011,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -15005,7 +15019,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
@@ -15013,17 +15027,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>81</v>
       </c>
@@ -15041,19 +15055,19 @@
       <selection activeCell="D23" sqref="D23:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>116</v>
       </c>
@@ -15079,7 +15093,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -15105,7 +15119,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>7</v>
       </c>
@@ -15131,7 +15145,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>7</v>
       </c>
@@ -15157,7 +15171,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>8</v>
       </c>
@@ -15183,7 +15197,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>14</v>
       </c>
@@ -15209,7 +15223,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>16</v>
       </c>
@@ -15235,7 +15249,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>21</v>
       </c>
@@ -15261,7 +15275,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>23</v>
       </c>
@@ -15287,11 +15301,11 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43">
+    <row r="10" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
         <v>28</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="41" t="s">
         <v>289</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -15313,11 +15327,11 @@
         <v>940</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43">
+    <row r="11" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
         <v>28</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="41" t="s">
         <v>292</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -15339,11 +15353,11 @@
         <v>798</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43">
+    <row r="12" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
         <v>28</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="41" t="s">
         <v>293</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -15365,7 +15379,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31</v>
       </c>
@@ -15391,7 +15405,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>31</v>
       </c>
@@ -15417,7 +15431,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>35</v>
       </c>
@@ -15436,14 +15450,14 @@
       <c r="F15" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="37" t="s">
         <v>846</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>37</v>
       </c>
@@ -15469,7 +15483,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>37</v>
       </c>
@@ -15495,7 +15509,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>38</v>
       </c>
@@ -15521,7 +15535,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>38</v>
       </c>
@@ -15540,14 +15554,14 @@
       <c r="F19" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="37" t="s">
         <v>819</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>39</v>
       </c>
@@ -15573,7 +15587,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>41</v>
       </c>
@@ -15599,7 +15613,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>45</v>
       </c>
@@ -15618,18 +15632,18 @@
       <c r="F22" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="37" t="s">
         <v>861</v>
       </c>
       <c r="H22" s="11" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="43">
+    <row r="23" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
         <v>46</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="41" t="s">
         <v>289</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -15651,7 +15665,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>49</v>
       </c>
@@ -15670,154 +15684,154 @@
       <c r="F24" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G24" s="37" t="s">
         <v>872</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
     </row>
@@ -15834,22 +15848,22 @@
       <selection activeCell="D51" sqref="D51:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -15887,7 +15901,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -15925,7 +15939,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>7</v>
       </c>
@@ -15963,7 +15977,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>7</v>
       </c>
@@ -16001,7 +16015,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>7</v>
       </c>
@@ -16039,7 +16053,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>7</v>
       </c>
@@ -16077,7 +16091,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>7</v>
       </c>
@@ -16115,7 +16129,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -16153,7 +16167,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -16187,7 +16201,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -16225,7 +16239,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -16263,7 +16277,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -16301,7 +16315,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>14</v>
       </c>
@@ -16339,7 +16353,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>16</v>
       </c>
@@ -16377,7 +16391,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>21</v>
       </c>
@@ -16415,7 +16429,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>23</v>
       </c>
@@ -16453,14 +16467,14 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>28</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="42" t="s">
         <v>289</v>
       </c>
       <c r="D17">
@@ -16485,14 +16499,14 @@
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>28</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="42" t="s">
         <v>289</v>
       </c>
       <c r="D18">
@@ -16517,14 +16531,14 @@
         <v>471</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>28</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="42" t="s">
         <v>289</v>
       </c>
       <c r="D19">
@@ -16549,14 +16563,14 @@
         <v>471</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="42" t="s">
         <v>289</v>
       </c>
       <c r="D20">
@@ -16581,14 +16595,14 @@
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="42" t="s">
         <v>289</v>
       </c>
       <c r="D21">
@@ -16613,14 +16627,14 @@
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>28</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="42" t="s">
         <v>289</v>
       </c>
       <c r="D22">
@@ -16645,7 +16659,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -16683,7 +16697,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>31</v>
       </c>
@@ -16721,7 +16735,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31</v>
       </c>
@@ -16759,7 +16773,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -16797,7 +16811,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>37</v>
       </c>
@@ -16835,7 +16849,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>37</v>
       </c>
@@ -16873,7 +16887,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>37</v>
       </c>
@@ -16911,7 +16925,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>37</v>
       </c>
@@ -16949,7 +16963,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>35</v>
       </c>
@@ -16971,7 +16985,7 @@
       <c r="G31" s="35">
         <v>130000</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="36">
         <v>130000</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -16987,7 +17001,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>38</v>
       </c>
@@ -17025,7 +17039,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>38</v>
       </c>
@@ -17047,7 +17061,7 @@
       <c r="G33" s="35">
         <v>150000</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="36">
         <v>150000</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -17063,7 +17077,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>39</v>
       </c>
@@ -17101,7 +17115,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>39</v>
       </c>
@@ -17139,7 +17153,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>39</v>
       </c>
@@ -17177,7 +17191,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>39</v>
       </c>
@@ -17215,7 +17229,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>39</v>
       </c>
@@ -17253,7 +17267,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>39</v>
       </c>
@@ -17291,7 +17305,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -17329,7 +17343,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -17367,7 +17381,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>39</v>
       </c>
@@ -17405,7 +17419,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>39</v>
       </c>
@@ -17443,7 +17457,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>39</v>
       </c>
@@ -17481,7 +17495,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>39</v>
       </c>
@@ -17519,7 +17533,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>39</v>
       </c>
@@ -17557,7 +17571,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>39</v>
       </c>
@@ -17595,7 +17609,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>39</v>
       </c>
@@ -17617,7 +17631,7 @@
       <c r="G48" s="35">
         <v>70000</v>
       </c>
-      <c r="H48" s="39">
+      <c r="H48" s="36">
         <v>70000</v>
       </c>
       <c r="I48" s="11" t="s">
@@ -17633,7 +17647,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>41</v>
       </c>
@@ -17667,7 +17681,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>45</v>
       </c>
@@ -17689,7 +17703,7 @@
       <c r="G50" s="35">
         <v>147585.59</v>
       </c>
-      <c r="H50" s="39">
+      <c r="H50" s="36">
         <v>147585.59</v>
       </c>
       <c r="I50" s="11" t="s">
@@ -17705,14 +17719,14 @@
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="42" t="s">
         <v>289</v>
       </c>
       <c r="D51">
@@ -17743,14 +17757,14 @@
         <v>333</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>46</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="42" t="s">
         <v>289</v>
       </c>
       <c r="D52">
@@ -17781,7 +17795,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>49</v>
       </c>
@@ -17819,55 +17833,55 @@
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
@@ -17884,31 +17898,31 @@
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -17925,7 +17939,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -17945,7 +17959,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -17965,7 +17979,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>5</v>
       </c>
@@ -17985,7 +17999,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18003,7 +18017,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -18023,7 +18037,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -18041,7 +18055,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -18059,7 +18073,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>5</v>
       </c>
@@ -18077,7 +18091,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -18097,7 +18111,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>15</v>
       </c>
@@ -18117,7 +18131,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>15</v>
       </c>
@@ -18137,7 +18151,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>18</v>
       </c>
@@ -18155,7 +18169,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>19</v>
       </c>
@@ -18173,7 +18187,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>21</v>
       </c>
@@ -18193,7 +18207,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>22</v>
       </c>
@@ -18211,7 +18225,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>22</v>
       </c>
@@ -18229,7 +18243,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>23</v>
       </c>
@@ -18249,7 +18263,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>23</v>
       </c>
@@ -18272,7 +18286,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>23</v>
       </c>
@@ -18292,7 +18306,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>23</v>
       </c>
@@ -18312,7 +18326,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>23</v>
       </c>
@@ -18332,7 +18346,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>24</v>
       </c>
@@ -18352,7 +18366,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -18372,7 +18386,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -18392,7 +18406,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -18409,7 +18423,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -18426,7 +18440,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -18443,7 +18457,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -18460,7 +18474,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -18477,7 +18491,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -18494,7 +18508,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -18511,7 +18525,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -18528,7 +18542,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -18546,7 +18560,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -18564,7 +18578,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -18582,7 +18596,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -18600,7 +18614,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>34</v>
       </c>
@@ -18618,7 +18632,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>37</v>
       </c>
@@ -18636,7 +18650,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -18654,7 +18668,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43</v>
       </c>
@@ -18672,7 +18686,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>46</v>
       </c>
@@ -18689,7 +18703,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>46</v>
       </c>
@@ -18706,7 +18720,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>47</v>
       </c>
@@ -18723,7 +18737,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>49</v>
       </c>
@@ -18741,7 +18755,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>49</v>
       </c>
@@ -18759,75 +18773,75 @@
         <v>576</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
@@ -18849,21 +18863,21 @@
       <selection activeCell="D84" sqref="D84:J84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -18895,7 +18909,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -18911,9 +18925,9 @@
       <c r="G2" s="11"/>
       <c r="H2" s="27"/>
       <c r="I2" s="27"/>
-      <c r="J2" s="40"/>
-    </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -18939,7 +18953,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -18965,7 +18979,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>5</v>
       </c>
@@ -18994,7 +19008,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -19023,7 +19037,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -19052,7 +19066,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -19081,7 +19095,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -19110,7 +19124,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -19139,7 +19153,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -19168,7 +19182,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -19197,7 +19211,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>5</v>
       </c>
@@ -19226,7 +19240,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>5</v>
       </c>
@@ -19255,7 +19269,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>5</v>
       </c>
@@ -19284,7 +19298,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>5</v>
       </c>
@@ -19313,7 +19327,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>5</v>
       </c>
@@ -19342,7 +19356,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>5</v>
       </c>
@@ -19371,7 +19385,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>5</v>
       </c>
@@ -19400,7 +19414,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>5</v>
       </c>
@@ -19429,7 +19443,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>5</v>
       </c>
@@ -19458,7 +19472,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>5</v>
       </c>
@@ -19487,7 +19501,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>7</v>
       </c>
@@ -19511,7 +19525,7 @@
       </c>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>15</v>
       </c>
@@ -19540,7 +19554,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>15</v>
       </c>
@@ -19572,7 +19586,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>15</v>
       </c>
@@ -19604,7 +19618,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>15</v>
       </c>
@@ -19636,7 +19650,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>18</v>
       </c>
@@ -19665,7 +19679,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>19</v>
       </c>
@@ -19694,7 +19708,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>21</v>
       </c>
@@ -19723,7 +19737,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>21</v>
       </c>
@@ -19752,7 +19766,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>21</v>
       </c>
@@ -19781,7 +19795,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>21</v>
       </c>
@@ -19810,7 +19824,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>21</v>
       </c>
@@ -19839,7 +19853,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>21</v>
       </c>
@@ -19868,7 +19882,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>21</v>
       </c>
@@ -19897,7 +19911,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>21</v>
       </c>
@@ -19926,7 +19940,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>21</v>
       </c>
@@ -19955,7 +19969,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>21</v>
       </c>
@@ -19984,7 +19998,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>21</v>
       </c>
@@ -20013,7 +20027,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>21</v>
       </c>
@@ -20042,7 +20056,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>22</v>
       </c>
@@ -20071,7 +20085,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>22</v>
       </c>
@@ -20100,7 +20114,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>22</v>
       </c>
@@ -20129,7 +20143,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>23</v>
       </c>
@@ -20158,7 +20172,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>23</v>
       </c>
@@ -20187,7 +20201,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>23</v>
       </c>
@@ -20216,7 +20230,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>23</v>
       </c>
@@ -20245,7 +20259,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>23</v>
       </c>
@@ -20274,7 +20288,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>23</v>
       </c>
@@ -20303,7 +20317,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>24</v>
       </c>
@@ -20332,7 +20346,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>24</v>
       </c>
@@ -20361,7 +20375,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>24</v>
       </c>
@@ -20390,7 +20404,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>25</v>
       </c>
@@ -20419,7 +20433,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26</v>
       </c>
@@ -20441,14 +20455,14 @@
       <c r="G55" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H55" s="46" t="s">
+      <c r="H55" s="43" t="s">
         <v>962</v>
       </c>
-      <c r="J55" s="47" t="s">
+      <c r="J55" s="44" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>26</v>
       </c>
@@ -20470,14 +20484,14 @@
       <c r="G56" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H56" s="46" t="s">
+      <c r="H56" s="43" t="s">
         <v>965</v>
       </c>
-      <c r="J56" s="48" t="s">
+      <c r="J56" s="45" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>26</v>
       </c>
@@ -20499,14 +20513,14 @@
       <c r="G57" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H57" s="46" t="s">
+      <c r="H57" s="43" t="s">
         <v>965</v>
       </c>
-      <c r="J57" s="46" t="s">
+      <c r="J57" s="43" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>27</v>
       </c>
@@ -20528,14 +20542,14 @@
       <c r="G58" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H58" s="46" t="s">
+      <c r="H58" s="43" t="s">
         <v>969</v>
       </c>
-      <c r="J58" s="46" t="s">
+      <c r="J58" s="43" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>27</v>
       </c>
@@ -20557,14 +20571,14 @@
       <c r="G59" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H59" s="46" t="s">
+      <c r="H59" s="43" t="s">
         <v>971</v>
       </c>
-      <c r="J59" s="46" t="s">
+      <c r="J59" s="43" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>27</v>
       </c>
@@ -20586,14 +20600,14 @@
       <c r="G60" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H60" s="46" t="s">
+      <c r="H60" s="43" t="s">
         <v>972</v>
       </c>
-      <c r="J60" s="46" t="s">
+      <c r="J60" s="43" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>27</v>
       </c>
@@ -20615,14 +20629,14 @@
       <c r="G61" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H61" s="46" t="s">
+      <c r="H61" s="43" t="s">
         <v>973</v>
       </c>
-      <c r="J61" s="46" t="s">
+      <c r="J61" s="43" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>30</v>
       </c>
@@ -20644,14 +20658,14 @@
       <c r="G62" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H62" s="46" t="s">
+      <c r="H62" s="43" t="s">
         <v>1023</v>
       </c>
-      <c r="J62" s="46" t="s">
+      <c r="J62" s="43" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>30</v>
       </c>
@@ -20673,14 +20687,14 @@
       <c r="G63" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H63" s="46" t="s">
+      <c r="H63" s="43" t="s">
         <v>1023</v>
       </c>
-      <c r="J63" s="46" t="s">
+      <c r="J63" s="43" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>30</v>
       </c>
@@ -20702,14 +20716,14 @@
       <c r="G64" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H64" s="46" t="s">
+      <c r="H64" s="43" t="s">
         <v>1025</v>
       </c>
-      <c r="J64" s="46" t="s">
+      <c r="J64" s="43" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>32</v>
       </c>
@@ -20739,7 +20753,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>33</v>
       </c>
@@ -20769,7 +20783,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>33</v>
       </c>
@@ -20799,7 +20813,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>33</v>
       </c>
@@ -20829,7 +20843,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>34</v>
       </c>
@@ -20859,7 +20873,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>34</v>
       </c>
@@ -20889,7 +20903,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>34</v>
       </c>
@@ -20919,7 +20933,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>34</v>
       </c>
@@ -20949,7 +20963,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>34</v>
       </c>
@@ -20979,7 +20993,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>34</v>
       </c>
@@ -21009,7 +21023,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>34</v>
       </c>
@@ -21039,7 +21053,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>37</v>
       </c>
@@ -21069,7 +21083,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>39</v>
       </c>
@@ -21099,7 +21113,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>43</v>
       </c>
@@ -21125,11 +21139,11 @@
         <v>833</v>
       </c>
       <c r="I78" s="11"/>
-      <c r="J78" s="42" t="s">
+      <c r="J78" s="39" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>43</v>
       </c>
@@ -21155,11 +21169,11 @@
         <v>835</v>
       </c>
       <c r="I79" s="11"/>
-      <c r="J79" s="42" t="s">
+      <c r="J79" s="39" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>43</v>
       </c>
@@ -21185,11 +21199,11 @@
         <v>837</v>
       </c>
       <c r="I80" s="11"/>
-      <c r="J80" s="42" t="s">
+      <c r="J80" s="39" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>46</v>
       </c>
@@ -21211,14 +21225,14 @@
       <c r="G81" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H81" s="46" t="s">
+      <c r="H81" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="J81" s="46" t="s">
+      <c r="J81" s="43" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>46</v>
       </c>
@@ -21240,14 +21254,14 @@
       <c r="G82" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H82" s="46" t="s">
+      <c r="H82" s="43" t="s">
         <v>825</v>
       </c>
-      <c r="J82" s="46" t="s">
+      <c r="J82" s="43" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>46</v>
       </c>
@@ -21269,14 +21283,14 @@
       <c r="G83" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H83" s="46" t="s">
+      <c r="H83" s="43" t="s">
         <v>973</v>
       </c>
-      <c r="J83" s="50" t="s">
+      <c r="J83" s="47" t="s">
         <v>1061</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>47</v>
       </c>
@@ -21298,14 +21312,14 @@
       <c r="G84" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="H84" s="46" t="s">
+      <c r="H84" s="43" t="s">
         <v>1098</v>
       </c>
-      <c r="J84" s="46" t="s">
+      <c r="J84" s="43" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>49</v>
       </c>
@@ -21335,7 +21349,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>49</v>
       </c>
@@ -21374,23 +21388,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5908E7C3-AF9B-C045-9C8C-7C39702D5D07}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="D76" sqref="D76:H76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>116</v>
       </c>
@@ -21416,7 +21430,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -21430,7 +21444,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -21457,7 +21471,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -21484,7 +21498,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>5</v>
       </c>
@@ -21511,7 +21525,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21538,7 +21552,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -21565,7 +21579,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -21592,7 +21606,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -21619,7 +21633,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -21646,7 +21660,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -21673,7 +21687,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -21700,7 +21714,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>5</v>
       </c>
@@ -21727,7 +21741,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>5</v>
       </c>
@@ -21754,7 +21768,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>5</v>
       </c>
@@ -21781,7 +21795,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>5</v>
       </c>
@@ -21808,7 +21822,7 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>5</v>
       </c>
@@ -21835,7 +21849,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>5</v>
       </c>
@@ -21862,7 +21876,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>5</v>
       </c>
@@ -21889,7 +21903,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>5</v>
       </c>
@@ -21916,7 +21930,7 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>5</v>
       </c>
@@ -21943,7 +21957,7 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>7</v>
       </c>
@@ -21967,7 +21981,7 @@
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>15</v>
       </c>
@@ -21993,7 +22007,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>15</v>
       </c>
@@ -22019,7 +22033,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -22045,7 +22059,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -22071,7 +22085,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>21</v>
       </c>
@@ -22098,7 +22112,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -22125,7 +22139,7 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>21</v>
       </c>
@@ -22152,7 +22166,7 @@
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>21</v>
       </c>
@@ -22179,7 +22193,7 @@
       </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>21</v>
       </c>
@@ -22206,7 +22220,7 @@
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>21</v>
       </c>
@@ -22233,7 +22247,7 @@
       </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>21</v>
       </c>
@@ -22260,7 +22274,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>21</v>
       </c>
@@ -22287,7 +22301,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>21</v>
       </c>
@@ -22314,7 +22328,7 @@
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>21</v>
       </c>
@@ -22341,7 +22355,7 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>21</v>
       </c>
@@ -22368,7 +22382,7 @@
       </c>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>21</v>
       </c>
@@ -22395,7 +22409,7 @@
       </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>22</v>
       </c>
@@ -22421,7 +22435,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>22</v>
       </c>
@@ -22447,7 +22461,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>22</v>
       </c>
@@ -22473,7 +22487,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>23</v>
       </c>
@@ -22499,7 +22513,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>23</v>
       </c>
@@ -22525,7 +22539,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>23</v>
       </c>
@@ -22551,7 +22565,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>23</v>
       </c>
@@ -22577,7 +22591,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>23</v>
       </c>
@@ -22603,7 +22617,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>23</v>
       </c>
@@ -22629,7 +22643,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>24</v>
       </c>
@@ -22656,7 +22670,7 @@
       </c>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>24</v>
       </c>
@@ -22683,7 +22697,7 @@
       </c>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>24</v>
       </c>
@@ -22710,7 +22724,7 @@
       </c>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>25</v>
       </c>
@@ -22736,7 +22750,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>26</v>
       </c>
@@ -22760,7 +22774,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>26</v>
       </c>
@@ -22786,7 +22800,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
@@ -22812,7 +22826,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>27</v>
       </c>
@@ -22838,7 +22852,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>27</v>
       </c>
@@ -22864,7 +22878,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>27</v>
       </c>
@@ -22890,7 +22904,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>27</v>
       </c>
@@ -22916,7 +22930,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>30</v>
       </c>
@@ -22942,7 +22956,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>30</v>
       </c>
@@ -22968,7 +22982,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>30</v>
       </c>
@@ -22994,14 +23008,14 @@
         <v>665</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>32</v>
       </c>
       <c r="B62" s="11">
         <v>1</v>
       </c>
-      <c r="C62" s="41">
+      <c r="C62" s="38">
         <v>2</v>
       </c>
       <c r="D62" s="11" t="s">
@@ -23020,7 +23034,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>33</v>
       </c>
@@ -23046,7 +23060,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>34</v>
       </c>
@@ -23072,7 +23086,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>34</v>
       </c>
@@ -23098,7 +23112,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>34</v>
       </c>
@@ -23124,7 +23138,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>34</v>
       </c>
@@ -23150,7 +23164,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>34</v>
       </c>
@@ -23176,7 +23190,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>37</v>
       </c>
@@ -23202,7 +23216,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>39</v>
       </c>
@@ -23228,7 +23242,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>43</v>
       </c>
@@ -23254,7 +23268,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>43</v>
       </c>
@@ -23280,7 +23294,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>43</v>
       </c>
@@ -23306,7 +23320,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>46</v>
       </c>
@@ -23332,7 +23346,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>46</v>
       </c>
@@ -23358,7 +23372,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>47</v>
       </c>
@@ -23384,7 +23398,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>49</v>
       </c>
@@ -23410,7 +23424,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>49</v>
       </c>
@@ -23445,74 +23459,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757F64B5-E536-2342-B5E0-205055B80BBA}">
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:Z38"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="64.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="50"/>
+      <c r="D1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="37"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -23589,7 +23603,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -23657,7 +23671,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -23711,7 +23725,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -23765,7 +23779,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -23805,11 +23819,11 @@
       <c r="N6" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" t="s">
+        <v>338</v>
+      </c>
+      <c r="P6" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P6" t="s">
-        <v>338</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>375</v>
@@ -23824,7 +23838,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -23864,11 +23878,11 @@
       <c r="N7" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="17" t="s">
+      <c r="O7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P7" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P7" t="s">
-        <v>338</v>
       </c>
       <c r="U7" s="5" t="s">
         <v>383</v>
@@ -23883,7 +23897,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -23923,11 +23937,11 @@
       <c r="N8" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" t="s">
+        <v>387</v>
+      </c>
+      <c r="P8" s="17" t="s">
         <v>386</v>
-      </c>
-      <c r="P8" t="s">
-        <v>387</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>388</v>
@@ -23942,7 +23956,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -23982,11 +23996,11 @@
       <c r="N9" t="s">
         <v>62</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" t="s">
+        <v>338</v>
+      </c>
+      <c r="P9" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P9" t="s">
-        <v>338</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>396</v>
@@ -24001,7 +24015,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="136" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="126" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -24041,11 +24055,11 @@
       <c r="N10" t="s">
         <v>62</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" t="s">
+        <v>338</v>
+      </c>
+      <c r="P10" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P10" t="s">
-        <v>338</v>
       </c>
       <c r="U10" s="5" t="s">
         <v>401</v>
@@ -24060,7 +24074,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -24100,11 +24114,11 @@
       <c r="N11" t="s">
         <v>62</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" t="s">
+        <v>338</v>
+      </c>
+      <c r="P11" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P11" t="s">
-        <v>338</v>
       </c>
       <c r="U11" s="5" t="s">
         <v>410</v>
@@ -24119,7 +24133,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -24157,11 +24171,11 @@
       <c r="N12" t="s">
         <v>62</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" t="s">
+        <v>338</v>
+      </c>
+      <c r="P12" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P12" t="s">
-        <v>338</v>
       </c>
       <c r="U12" s="5" t="s">
         <v>413</v>
@@ -24176,7 +24190,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="136" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="126" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -24216,11 +24230,11 @@
       <c r="N13" t="s">
         <v>62</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" t="s">
+        <v>338</v>
+      </c>
+      <c r="P13" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P13" t="s">
-        <v>338</v>
       </c>
       <c r="U13" s="5" t="s">
         <v>416</v>
@@ -24235,7 +24249,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -24273,11 +24287,11 @@
       <c r="N14" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" t="s">
+        <v>338</v>
+      </c>
+      <c r="P14" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P14" t="s">
-        <v>338</v>
       </c>
       <c r="U14" s="5" t="s">
         <v>425</v>
@@ -24292,7 +24306,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -24332,11 +24346,11 @@
       <c r="N15" t="s">
         <v>62</v>
       </c>
-      <c r="O15" s="17" t="s">
+      <c r="O15" t="s">
+        <v>338</v>
+      </c>
+      <c r="P15" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P15" t="s">
-        <v>338</v>
       </c>
       <c r="U15" s="5" t="s">
         <v>432</v>
@@ -24351,7 +24365,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -24391,11 +24405,11 @@
       <c r="N16" t="s">
         <v>62</v>
       </c>
-      <c r="O16" s="17" t="s">
+      <c r="O16" t="s">
+        <v>338</v>
+      </c>
+      <c r="P16" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P16" t="s">
-        <v>338</v>
       </c>
       <c r="U16" s="5" t="s">
         <v>437</v>
@@ -24410,7 +24424,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -24450,11 +24464,11 @@
       <c r="N17" t="s">
         <v>62</v>
       </c>
-      <c r="O17" s="17" t="s">
+      <c r="O17" t="s">
+        <v>338</v>
+      </c>
+      <c r="P17" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P17" t="s">
-        <v>338</v>
       </c>
       <c r="U17" s="5" t="s">
         <v>447</v>
@@ -24469,7 +24483,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -24509,11 +24523,11 @@
       <c r="N18" t="s">
         <v>62</v>
       </c>
-      <c r="O18" s="17" t="s">
+      <c r="O18" t="s">
+        <v>338</v>
+      </c>
+      <c r="P18" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P18" t="s">
-        <v>338</v>
       </c>
       <c r="U18" s="5" t="s">
         <v>453</v>
@@ -24528,7 +24542,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -24568,11 +24582,11 @@
       <c r="N19" t="s">
         <v>62</v>
       </c>
-      <c r="O19" s="17" t="s">
+      <c r="O19" t="s">
+        <v>338</v>
+      </c>
+      <c r="P19" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P19" t="s">
-        <v>338</v>
       </c>
       <c r="U19" s="5" t="s">
         <v>459</v>
@@ -24587,7 +24601,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="187" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -24643,7 +24657,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>935</v>
       </c>
@@ -24699,7 +24713,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>987</v>
       </c>
@@ -24755,7 +24769,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1032</v>
       </c>
@@ -24796,10 +24810,10 @@
         <v>62</v>
       </c>
       <c r="O23" t="s">
+        <v>338</v>
+      </c>
+      <c r="P23" t="s">
         <v>332</v>
-      </c>
-      <c r="P23" t="s">
-        <v>338</v>
       </c>
       <c r="U23" s="5" t="s">
         <v>1038</v>
@@ -24814,7 +24828,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>874</v>
       </c>
@@ -24853,10 +24867,10 @@
         <v>62</v>
       </c>
       <c r="O24" t="s">
+        <v>877</v>
+      </c>
+      <c r="P24" t="s">
         <v>332</v>
-      </c>
-      <c r="P24" t="s">
-        <v>877</v>
       </c>
       <c r="U24" s="5" t="s">
         <v>878</v>
@@ -24871,7 +24885,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -24911,11 +24925,11 @@
       <c r="N25" t="s">
         <v>62</v>
       </c>
-      <c r="O25" s="17" t="s">
+      <c r="O25" t="s">
+        <v>338</v>
+      </c>
+      <c r="P25" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P25" t="s">
-        <v>338</v>
       </c>
       <c r="U25" s="5" t="s">
         <v>681</v>
@@ -24930,7 +24944,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -24970,11 +24984,11 @@
       <c r="N26" t="s">
         <v>62</v>
       </c>
-      <c r="O26" s="17" t="s">
+      <c r="O26" t="s">
+        <v>338</v>
+      </c>
+      <c r="P26" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P26" t="s">
-        <v>338</v>
       </c>
       <c r="U26" s="5" t="s">
         <v>689</v>
@@ -24989,7 +25003,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="30" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" s="30" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>47</v>
       </c>
@@ -25029,11 +25043,11 @@
       <c r="N27" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="O27" s="30">
+      <c r="O27" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="P27" s="30">
         <v>122222221</v>
-      </c>
-      <c r="P27" s="30" t="s">
-        <v>338</v>
       </c>
       <c r="U27" s="31" t="s">
         <v>692</v>
@@ -25048,7 +25062,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="30" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" s="30" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>49</v>
       </c>
@@ -25088,11 +25102,11 @@
       <c r="N28" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="O28" s="30">
+      <c r="O28" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="P28" s="30">
         <v>122222221</v>
-      </c>
-      <c r="P28" s="30" t="s">
-        <v>338</v>
       </c>
       <c r="U28" s="31" t="s">
         <v>694</v>
@@ -25107,7 +25121,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="30" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" s="30" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>49</v>
       </c>
@@ -25145,11 +25159,11 @@
       <c r="N29" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="O29" s="30">
+      <c r="O29" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="P29" s="30">
         <v>122222221</v>
-      </c>
-      <c r="P29" s="30" t="s">
-        <v>338</v>
       </c>
       <c r="U29" s="31" t="s">
         <v>697</v>
@@ -25164,7 +25178,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>890</v>
       </c>
@@ -25204,11 +25218,11 @@
       <c r="N30" t="s">
         <v>62</v>
       </c>
-      <c r="O30" s="17" t="s">
+      <c r="O30" t="s">
+        <v>338</v>
+      </c>
+      <c r="P30" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P30" t="s">
-        <v>338</v>
       </c>
       <c r="U30" s="5" t="s">
         <v>892</v>
@@ -25223,7 +25237,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>894</v>
       </c>
@@ -25263,11 +25277,11 @@
       <c r="N31" t="s">
         <v>62</v>
       </c>
-      <c r="O31" s="17" t="s">
+      <c r="O31" t="s">
+        <v>338</v>
+      </c>
+      <c r="P31" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P31" t="s">
-        <v>338</v>
       </c>
       <c r="U31" s="5" t="s">
         <v>895</v>
@@ -25282,7 +25296,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>894</v>
       </c>
@@ -25322,11 +25336,11 @@
       <c r="N32" t="s">
         <v>62</v>
       </c>
-      <c r="O32" s="17" t="s">
+      <c r="O32" t="s">
+        <v>338</v>
+      </c>
+      <c r="P32" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P32" t="s">
-        <v>338</v>
       </c>
       <c r="U32" s="5" t="s">
         <v>902</v>
@@ -25341,7 +25355,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>904</v>
       </c>
@@ -25381,11 +25395,11 @@
       <c r="N33" t="s">
         <v>62</v>
       </c>
-      <c r="O33" s="17" t="s">
+      <c r="O33" t="s">
+        <v>338</v>
+      </c>
+      <c r="P33" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P33" t="s">
-        <v>338</v>
       </c>
       <c r="U33" s="5" t="s">
         <v>909</v>
@@ -25400,7 +25414,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>911</v>
       </c>
@@ -25440,11 +25454,11 @@
       <c r="N34" t="s">
         <v>62</v>
       </c>
-      <c r="O34" s="17" t="s">
+      <c r="O34" t="s">
+        <v>338</v>
+      </c>
+      <c r="P34" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P34" t="s">
-        <v>338</v>
       </c>
       <c r="U34" s="5" t="s">
         <v>918</v>
@@ -25459,7 +25473,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>911</v>
       </c>
@@ -25499,11 +25513,11 @@
       <c r="N35" t="s">
         <v>62</v>
       </c>
-      <c r="O35" s="17" t="s">
+      <c r="O35" t="s">
+        <v>338</v>
+      </c>
+      <c r="P35" s="17" t="s">
         <v>337</v>
-      </c>
-      <c r="P35" t="s">
-        <v>338</v>
       </c>
       <c r="U35" s="5" t="s">
         <v>920</v>
@@ -25518,7 +25532,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="221" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1052</v>
       </c>
@@ -25574,7 +25588,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1079</v>
       </c>
@@ -25630,7 +25644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1079</v>
       </c>
@@ -25686,7 +25700,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -25697,7 +25711,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -25708,7 +25722,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -25719,7 +25733,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -25730,7 +25744,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -25741,7 +25755,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -25752,7 +25766,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -25763,7 +25777,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -25774,7 +25788,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -25785,7 +25799,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -25796,7 +25810,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -25807,7 +25821,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -25818,7 +25832,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -25829,7 +25843,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -25840,7 +25854,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -25851,7 +25865,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -25862,7 +25876,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -25873,7 +25887,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -25884,7 +25898,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -25905,7 +25919,7 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{95778C52-CAE1-5344-B8D6-BA362EC86352}">
           <x14:formula1>
             <xm:f>COMMON!$G$2:$G$4</xm:f>
@@ -25929,21 +25943,21 @@
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD40"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -25966,7 +25980,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -25986,7 +26000,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -26006,7 +26020,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -26026,7 +26040,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>9</v>
       </c>
@@ -26046,7 +26060,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>10</v>
       </c>
@@ -26066,7 +26080,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>10</v>
       </c>
@@ -26086,7 +26100,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>11</v>
       </c>
@@ -26106,7 +26120,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>12</v>
       </c>
@@ -26126,7 +26140,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>12</v>
       </c>
@@ -26146,7 +26160,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>14</v>
       </c>
@@ -26166,7 +26180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>14</v>
       </c>
@@ -26186,7 +26200,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>14</v>
       </c>
@@ -26206,7 +26220,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>17</v>
       </c>
@@ -26226,7 +26240,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>17</v>
       </c>
@@ -26246,7 +26260,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>17</v>
       </c>
@@ -26266,7 +26280,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>18</v>
       </c>
@@ -26286,7 +26300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>18</v>
       </c>
@@ -26306,7 +26320,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>21</v>
       </c>
@@ -26326,7 +26340,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>28</v>
       </c>
@@ -26346,7 +26360,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>28</v>
       </c>
@@ -26366,7 +26380,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>28</v>
       </c>
@@ -26386,7 +26400,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>28</v>
       </c>
@@ -26406,7 +26420,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>30</v>
       </c>
@@ -26426,7 +26440,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31</v>
       </c>
@@ -26446,7 +26460,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>32</v>
       </c>
@@ -26466,7 +26480,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>33</v>
       </c>
@@ -26486,7 +26500,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>33</v>
       </c>
@@ -26506,7 +26520,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>33</v>
       </c>
@@ -26526,7 +26540,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>38</v>
       </c>
@@ -26546,7 +26560,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>38</v>
       </c>
@@ -26566,7 +26580,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>40</v>
       </c>
@@ -26586,7 +26600,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>42</v>
       </c>
@@ -26606,7 +26620,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>42</v>
       </c>
@@ -26626,7 +26640,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43</v>
       </c>
@@ -26646,7 +26660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>44</v>
       </c>
@@ -26666,7 +26680,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>44</v>
       </c>
@@ -26686,7 +26700,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>46</v>
       </c>
@@ -26706,7 +26720,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>47</v>
       </c>
@@ -26726,7 +26740,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>47</v>
       </c>
@@ -26768,20 +26782,20 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D50" sqref="D50:F50"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -26801,7 +26815,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -26821,7 +26835,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -26841,7 +26855,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -26861,7 +26875,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>9</v>
       </c>
@@ -26881,7 +26895,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>10</v>
       </c>
@@ -26901,7 +26915,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>10</v>
       </c>
@@ -26921,7 +26935,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>11</v>
       </c>
@@ -26941,7 +26955,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>12</v>
       </c>
@@ -26961,7 +26975,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>12</v>
       </c>
@@ -26981,7 +26995,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>14</v>
       </c>
@@ -27001,7 +27015,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>14</v>
       </c>
@@ -27021,7 +27035,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>14</v>
       </c>
@@ -27041,7 +27055,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>14</v>
       </c>
@@ -27061,7 +27075,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>17</v>
       </c>
@@ -27081,7 +27095,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>17</v>
       </c>
@@ -27101,7 +27115,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>17</v>
       </c>
@@ -27121,7 +27135,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>18</v>
       </c>
@@ -27141,7 +27155,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -27161,7 +27175,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>21</v>
       </c>
@@ -27181,7 +27195,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>28</v>
       </c>
@@ -27201,7 +27215,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>28</v>
       </c>
@@ -27221,7 +27235,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>28</v>
       </c>
@@ -27241,7 +27255,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>28</v>
       </c>
@@ -27261,7 +27275,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>28</v>
       </c>
@@ -27281,7 +27295,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>28</v>
       </c>
@@ -27301,7 +27315,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>30</v>
       </c>
@@ -27321,7 +27335,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>31</v>
       </c>
@@ -27341,7 +27355,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>31</v>
       </c>
@@ -27361,7 +27375,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -27381,7 +27395,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -27401,7 +27415,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>32</v>
       </c>
@@ -27421,7 +27435,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>33</v>
       </c>
@@ -27441,7 +27455,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -27461,7 +27475,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>33</v>
       </c>
@@ -27481,7 +27495,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>38</v>
       </c>
@@ -27501,7 +27515,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>38</v>
       </c>
@@ -27521,7 +27535,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>40</v>
       </c>
@@ -27541,7 +27555,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>42</v>
       </c>
@@ -27561,7 +27575,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>42</v>
       </c>
@@ -27581,7 +27595,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>42</v>
       </c>
@@ -27601,7 +27615,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>42</v>
       </c>
@@ -27621,7 +27635,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>43</v>
       </c>
@@ -27641,7 +27655,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>44</v>
       </c>
@@ -27661,7 +27675,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -27681,7 +27695,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -27701,7 +27715,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>44</v>
       </c>
@@ -27721,7 +27735,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>46</v>
       </c>
@@ -27741,7 +27755,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>47</v>
       </c>
@@ -27761,7 +27775,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>47</v>
       </c>

--- a/Raw Input Data/Processing/Masking_Tool_Input_Excel_v4_Consolidated.xlsx
+++ b/Raw Input Data/Processing/Masking_Tool_Input_Excel_v4_Consolidated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\Processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfong/hase-scripts/Raw Input Data/Processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E2AE73-FD8E-41F3-8E95-12C695713250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E186FAD-7EBA-2E4C-BE7C-DB8B96D393B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="6" xr2:uid="{62A6D20C-1BCA-9641-AAE7-542CC13A6031}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" firstSheet="2" activeTab="4" xr2:uid="{62A6D20C-1BCA-9641-AAE7-542CC13A6031}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC_General" sheetId="1" r:id="rId1"/>
@@ -1009,6 +1009,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2434,7 +2435,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2444,7 +2445,7 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2454,7 +2455,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2464,7 +2465,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2474,7 +2475,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3159,7 +3160,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3169,7 +3170,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3179,7 +3180,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3189,7 +3190,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3199,7 +3200,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3209,7 +3210,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3219,7 +3220,7 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3229,7 +3230,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3244,7 +3245,7 @@
       <rPr>
         <sz val="20"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3254,7 +3255,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3264,7 +3265,7 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3274,7 +3275,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3284,7 +3285,7 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3294,7 +3295,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3318,7 +3319,7 @@
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3328,7 +3329,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3715,33 +3716,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3749,7 +3750,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3763,6 +3764,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3780,35 +3782,35 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3827,14 +3829,14 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3885,7 +3887,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4053,39 +4055,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4137,7 +4139,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4248,6 +4250,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -4256,13 +4265,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -4327,31 +4329,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4379,29 +4361,29 @@
       <selection activeCell="D20" sqref="D20:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
@@ -4416,7 +4398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -4470,7 +4452,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -4522,7 +4504,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>299</v>
       </c>
@@ -4575,7 +4557,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>299</v>
       </c>
@@ -4628,7 +4610,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>305</v>
       </c>
@@ -4684,7 +4666,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -4740,7 +4722,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4793,7 +4775,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -4846,7 +4828,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -4899,7 +4881,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>935</v>
       </c>
@@ -4955,7 +4937,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>1032</v>
       </c>
@@ -5008,7 +4990,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="85" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>840</v>
       </c>
@@ -5061,7 +5043,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -5114,7 +5096,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -5167,7 +5149,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -5220,7 +5202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>850</v>
       </c>
@@ -5270,7 +5252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>854</v>
       </c>
@@ -5323,7 +5305,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>862</v>
       </c>
@@ -5376,7 +5358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>1052</v>
       </c>
@@ -5426,7 +5408,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>867</v>
       </c>
@@ -5479,147 +5461,147 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
@@ -5653,20 +5635,20 @@
       <selection activeCell="A38" sqref="A38:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -5695,7 +5677,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -5721,7 +5703,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5747,7 +5729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -5773,7 +5755,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>9</v>
       </c>
@@ -5799,7 +5781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>10</v>
       </c>
@@ -5825,7 +5807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>10</v>
       </c>
@@ -5851,7 +5833,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>11</v>
       </c>
@@ -5877,7 +5859,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>12</v>
       </c>
@@ -5903,7 +5885,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>12</v>
       </c>
@@ -5929,7 +5911,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>14</v>
       </c>
@@ -5955,7 +5937,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>14</v>
       </c>
@@ -5981,7 +5963,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>17</v>
       </c>
@@ -6007,7 +5989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>17</v>
       </c>
@@ -6033,7 +6015,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>17</v>
       </c>
@@ -6059,7 +6041,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>18</v>
       </c>
@@ -6085,7 +6067,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>18</v>
       </c>
@@ -6111,7 +6093,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>21</v>
       </c>
@@ -6137,7 +6119,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -6163,7 +6145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -6189,7 +6171,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>28</v>
       </c>
@@ -6215,7 +6197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>28</v>
       </c>
@@ -6241,7 +6223,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>30</v>
       </c>
@@ -6267,7 +6249,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>31</v>
       </c>
@@ -6293,7 +6275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>32</v>
       </c>
@@ -6319,7 +6301,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>33</v>
       </c>
@@ -6348,7 +6330,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>33</v>
       </c>
@@ -6374,7 +6356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>33</v>
       </c>
@@ -6400,7 +6382,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>38</v>
       </c>
@@ -6426,7 +6408,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>38</v>
       </c>
@@ -6452,7 +6434,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>40</v>
       </c>
@@ -6478,7 +6460,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>42</v>
       </c>
@@ -6507,7 +6489,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>42</v>
       </c>
@@ -6536,7 +6518,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>43</v>
       </c>
@@ -6562,7 +6544,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>44</v>
       </c>
@@ -6588,7 +6570,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>44</v>
       </c>
@@ -6614,7 +6596,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>46</v>
       </c>
@@ -6640,7 +6622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>47</v>
       </c>
@@ -6666,7 +6648,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>47</v>
       </c>
@@ -6717,39 +6699,39 @@
       <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="130.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="103" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="92.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="60.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="92.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
@@ -6787,7 +6769,7 @@
       <c r="AA1" s="50"/>
       <c r="AB1" s="50"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -6871,7 +6853,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -6957,7 +6939,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -7043,7 +7025,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -7129,7 +7111,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -7215,7 +7197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -7301,7 +7283,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -7387,7 +7369,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -7473,7 +7455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -7559,7 +7541,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -7645,7 +7627,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -7728,7 +7710,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -7811,7 +7793,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -7897,7 +7879,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>987</v>
       </c>
@@ -7980,7 +7962,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>987</v>
       </c>
@@ -8063,7 +8045,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>1032</v>
       </c>
@@ -8149,7 +8131,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -8235,7 +8217,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -8318,7 +8300,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -8404,7 +8386,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>904</v>
       </c>
@@ -8490,7 +8472,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>904</v>
       </c>
@@ -8570,7 +8552,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>1052</v>
       </c>
@@ -8653,7 +8635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>1079</v>
       </c>
@@ -8736,7 +8718,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>1101</v>
       </c>
@@ -8822,139 +8804,139 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
@@ -9009,52 +8991,52 @@
       <selection activeCell="D47" sqref="D47:AF47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="43.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
@@ -9110,7 +9092,7 @@
       <c r="AQ1" s="50"/>
       <c r="AR1" s="50"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" s="49"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -9242,7 +9224,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -9310,7 +9292,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>292</v>
       </c>
@@ -9387,7 +9369,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>293</v>
       </c>
@@ -9453,7 +9435,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>313</v>
       </c>
@@ -9519,7 +9501,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>313</v>
       </c>
@@ -9585,7 +9567,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>313</v>
       </c>
@@ -9651,7 +9633,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>305</v>
       </c>
@@ -9708,7 +9690,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -9765,7 +9747,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -9822,7 +9804,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -9879,7 +9861,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -9942,7 +9924,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -10008,7 +9990,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -10074,7 +10056,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -10140,7 +10122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -10206,7 +10188,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -10272,7 +10254,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -10338,7 +10320,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -10404,7 +10386,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -10473,7 +10455,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>974</v>
       </c>
@@ -10542,7 +10524,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>974</v>
       </c>
@@ -10614,7 +10596,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>974</v>
       </c>
@@ -10680,7 +10662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>983</v>
       </c>
@@ -10749,7 +10731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>983</v>
       </c>
@@ -10818,7 +10800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:32" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>987</v>
       </c>
@@ -10887,7 +10869,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:32" ht="26" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>987</v>
       </c>
@@ -10956,7 +10938,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>987</v>
       </c>
@@ -11025,7 +11007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:32" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>987</v>
       </c>
@@ -11094,7 +11076,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>987</v>
       </c>
@@ -11163,7 +11145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11229,7 +11211,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11295,7 +11277,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11361,7 +11343,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11427,7 +11409,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>874</v>
       </c>
@@ -11493,7 +11475,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -11559,7 +11541,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -11625,7 +11607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -11691,7 +11673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -11757,7 +11739,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>850</v>
       </c>
@@ -11823,7 +11805,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>890</v>
       </c>
@@ -11889,7 +11871,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>911</v>
       </c>
@@ -11955,7 +11937,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>1052</v>
       </c>
@@ -12021,7 +12003,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>932</v>
       </c>
@@ -12087,7 +12069,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>932</v>
       </c>
@@ -12153,7 +12135,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>1101</v>
       </c>
@@ -12216,7 +12198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="X48" s="2"/>
@@ -12224,7 +12206,7 @@
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="X49" s="2"/>
@@ -12232,7 +12214,7 @@
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="X50" s="2"/>
@@ -12240,7 +12222,7 @@
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="X51" s="2"/>
@@ -12248,7 +12230,7 @@
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="X52" s="2"/>
@@ -12256,7 +12238,7 @@
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="X53" s="2"/>
@@ -12264,7 +12246,7 @@
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="X54" s="2"/>
@@ -12272,7 +12254,7 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="X55" s="2"/>
@@ -12280,7 +12262,7 @@
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="X56" s="2"/>
@@ -12288,7 +12270,7 @@
       <c r="AA56" s="7"/>
       <c r="AB56" s="7"/>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="X57" s="2"/>
@@ -12296,7 +12278,7 @@
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="X58" s="2"/>
@@ -12304,7 +12286,7 @@
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="X59" s="2"/>
@@ -12312,7 +12294,7 @@
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="X60" s="2"/>
@@ -12320,7 +12302,7 @@
       <c r="AA60" s="7"/>
       <c r="AB60" s="7"/>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="X61" s="2"/>
@@ -12328,7 +12310,7 @@
       <c r="AA61" s="7"/>
       <c r="AB61" s="7"/>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="X62" s="2"/>
@@ -12336,7 +12318,7 @@
       <c r="AA62" s="7"/>
       <c r="AB62" s="7"/>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="X63" s="2"/>
@@ -12344,7 +12326,7 @@
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="X64" s="2"/>
@@ -12352,7 +12334,7 @@
       <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="X65" s="2"/>
@@ -12360,7 +12342,7 @@
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="X66" s="2"/>
@@ -12368,7 +12350,7 @@
       <c r="AA66" s="7"/>
       <c r="AB66" s="7"/>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="X67" s="2"/>
@@ -12376,7 +12358,7 @@
       <c r="AA67" s="7"/>
       <c r="AB67" s="7"/>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="X68" s="2"/>
@@ -12384,7 +12366,7 @@
       <c r="AA68" s="7"/>
       <c r="AB68" s="7"/>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="X69" s="2"/>
@@ -12392,7 +12374,7 @@
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="X70" s="2"/>
@@ -12400,7 +12382,7 @@
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="X71" s="2"/>
@@ -12408,7 +12390,7 @@
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
     </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="X72" s="2"/>
@@ -12416,7 +12398,7 @@
       <c r="AA72" s="7"/>
       <c r="AB72" s="7"/>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="X73" s="2"/>
@@ -12424,7 +12406,7 @@
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
     </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="X74" s="2"/>
@@ -12432,7 +12414,7 @@
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
     </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="X75" s="2"/>
@@ -12440,7 +12422,7 @@
       <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
     </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="X76" s="2"/>
@@ -12448,7 +12430,7 @@
       <c r="AA76" s="7"/>
       <c r="AB76" s="7"/>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="X77" s="2"/>
@@ -12456,7 +12438,7 @@
       <c r="AA77" s="7"/>
       <c r="AB77" s="7"/>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="X78" s="2"/>
@@ -12464,7 +12446,7 @@
       <c r="AA78" s="7"/>
       <c r="AB78" s="7"/>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="X79" s="2"/>
@@ -12472,7 +12454,7 @@
       <c r="AA79" s="7"/>
       <c r="AB79" s="7"/>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="X80" s="2"/>
@@ -12480,7 +12462,7 @@
       <c r="AA80" s="7"/>
       <c r="AB80" s="7"/>
     </row>
-    <row r="81" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="X81" s="2"/>
@@ -12565,33 +12547,33 @@
       <selection activeCell="P47" sqref="A47:P47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="13.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -12665,7 +12647,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -12709,7 +12691,7 @@
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -12753,7 +12735,7 @@
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -12797,7 +12779,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -12841,7 +12823,7 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -12883,7 +12865,7 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -12925,7 +12907,7 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -12969,7 +12951,7 @@
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -13011,7 +12993,7 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>13</v>
       </c>
@@ -13065,7 +13047,7 @@
       </c>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>15</v>
       </c>
@@ -13109,7 +13091,7 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>18</v>
       </c>
@@ -13151,7 +13133,7 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>23</v>
       </c>
@@ -13178,7 +13160,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>23</v>
       </c>
@@ -13205,7 +13187,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>23</v>
       </c>
@@ -13232,7 +13214,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>23</v>
       </c>
@@ -13259,7 +13241,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>23</v>
       </c>
@@ -13286,7 +13268,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>24</v>
       </c>
@@ -13328,7 +13310,7 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>24</v>
       </c>
@@ -13370,7 +13352,7 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>24</v>
       </c>
@@ -13412,7 +13394,7 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>25</v>
       </c>
@@ -13439,7 +13421,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>27</v>
       </c>
@@ -13466,7 +13448,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>27</v>
       </c>
@@ -13493,7 +13475,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27</v>
       </c>
@@ -13520,7 +13502,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>29</v>
       </c>
@@ -13547,7 +13529,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>29</v>
       </c>
@@ -13574,7 +13556,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>30</v>
       </c>
@@ -13601,7 +13583,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>30</v>
       </c>
@@ -13628,7 +13610,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>30</v>
       </c>
@@ -13655,7 +13637,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>30</v>
       </c>
@@ -13682,7 +13664,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13709,7 +13691,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13736,7 +13718,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -13763,7 +13745,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -13790,7 +13772,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>31</v>
       </c>
@@ -13817,7 +13799,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>32</v>
       </c>
@@ -13859,7 +13841,7 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -13901,7 +13883,7 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -13943,7 +13925,7 @@
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -13985,7 +13967,7 @@
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -14027,7 +14009,7 @@
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -14069,7 +14051,7 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -14111,7 +14093,7 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>44</v>
       </c>
@@ -14153,7 +14135,7 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>46</v>
       </c>
@@ -14180,7 +14162,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>48</v>
       </c>
@@ -14222,7 +14204,7 @@
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>48</v>
       </c>
@@ -14264,7 +14246,7 @@
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>50</v>
       </c>
@@ -14288,559 +14270,559 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J209" s="2"/>
     </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J211" s="2"/>
     </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J227" s="2"/>
     </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J229" s="2"/>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J232" s="2"/>
     </row>
   </sheetData>
@@ -14881,13 +14863,13 @@
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -14901,7 +14883,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -14915,7 +14897,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
@@ -14929,7 +14911,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>84</v>
@@ -14941,7 +14923,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>70</v>
       </c>
@@ -14949,7 +14931,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
@@ -14960,7 +14942,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -14971,7 +14953,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
@@ -14982,12 +14964,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -14995,7 +14977,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>76</v>
       </c>
@@ -15003,7 +14985,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>64</v>
       </c>
@@ -15011,7 +14993,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -15019,7 +15001,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
@@ -15027,17 +15009,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>81</v>
       </c>
@@ -15055,19 +15037,19 @@
       <selection activeCell="D23" sqref="D23:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>116</v>
       </c>
@@ -15093,7 +15075,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -15119,7 +15101,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>7</v>
       </c>
@@ -15145,7 +15127,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>7</v>
       </c>
@@ -15171,7 +15153,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>8</v>
       </c>
@@ -15197,7 +15179,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>14</v>
       </c>
@@ -15223,7 +15205,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>16</v>
       </c>
@@ -15249,7 +15231,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>21</v>
       </c>
@@ -15275,7 +15257,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>23</v>
       </c>
@@ -15301,7 +15283,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="40">
         <v>28</v>
       </c>
@@ -15327,7 +15309,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="40">
         <v>28</v>
       </c>
@@ -15353,7 +15335,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="40">
         <v>28</v>
       </c>
@@ -15379,7 +15361,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>31</v>
       </c>
@@ -15405,7 +15387,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>31</v>
       </c>
@@ -15431,7 +15413,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>35</v>
       </c>
@@ -15457,7 +15439,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>37</v>
       </c>
@@ -15483,7 +15465,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>37</v>
       </c>
@@ -15509,7 +15491,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>38</v>
       </c>
@@ -15535,7 +15517,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>38</v>
       </c>
@@ -15561,7 +15543,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>39</v>
       </c>
@@ -15587,7 +15569,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>41</v>
       </c>
@@ -15613,7 +15595,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>45</v>
       </c>
@@ -15639,7 +15621,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="40">
         <v>46</v>
       </c>
@@ -15665,7 +15647,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>49</v>
       </c>
@@ -15691,147 +15673,147 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
     </row>
@@ -15848,22 +15830,22 @@
       <selection activeCell="D51" sqref="D51:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -15901,7 +15883,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -15939,7 +15921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>7</v>
       </c>
@@ -15977,7 +15959,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>7</v>
       </c>
@@ -16015,7 +15997,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>7</v>
       </c>
@@ -16053,7 +16035,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>7</v>
       </c>
@@ -16091,7 +16073,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>7</v>
       </c>
@@ -16129,7 +16111,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -16167,7 +16149,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -16201,7 +16183,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -16239,7 +16221,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -16277,7 +16259,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -16315,7 +16297,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>14</v>
       </c>
@@ -16353,7 +16335,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>16</v>
       </c>
@@ -16391,7 +16373,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>21</v>
       </c>
@@ -16429,7 +16411,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>23</v>
       </c>
@@ -16467,7 +16449,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>28</v>
       </c>
@@ -16499,7 +16481,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>28</v>
       </c>
@@ -16531,7 +16513,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -16563,7 +16545,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28</v>
       </c>
@@ -16595,7 +16577,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>28</v>
       </c>
@@ -16627,7 +16609,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>28</v>
       </c>
@@ -16659,7 +16641,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>31</v>
       </c>
@@ -16697,7 +16679,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>31</v>
       </c>
@@ -16735,7 +16717,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>31</v>
       </c>
@@ -16773,7 +16755,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>31</v>
       </c>
@@ -16811,7 +16793,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>37</v>
       </c>
@@ -16849,7 +16831,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>37</v>
       </c>
@@ -16887,7 +16869,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>37</v>
       </c>
@@ -16925,7 +16907,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="11">
         <v>37</v>
       </c>
@@ -16963,7 +16945,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="11">
         <v>35</v>
       </c>
@@ -17001,7 +16983,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>38</v>
       </c>
@@ -17039,7 +17021,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>38</v>
       </c>
@@ -17077,7 +17059,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>39</v>
       </c>
@@ -17115,7 +17097,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>39</v>
       </c>
@@ -17153,7 +17135,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>39</v>
       </c>
@@ -17191,7 +17173,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>39</v>
       </c>
@@ -17229,7 +17211,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>39</v>
       </c>
@@ -17267,7 +17249,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>39</v>
       </c>
@@ -17305,7 +17287,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -17343,7 +17325,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -17381,7 +17363,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>39</v>
       </c>
@@ -17419,7 +17401,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>39</v>
       </c>
@@ -17457,7 +17439,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>39</v>
       </c>
@@ -17495,7 +17477,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>39</v>
       </c>
@@ -17533,7 +17515,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>39</v>
       </c>
@@ -17571,7 +17553,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>39</v>
       </c>
@@ -17609,7 +17591,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>39</v>
       </c>
@@ -17647,7 +17629,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>41</v>
       </c>
@@ -17681,7 +17663,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>45</v>
       </c>
@@ -17719,7 +17701,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>46</v>
       </c>
@@ -17757,7 +17739,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>46</v>
       </c>
@@ -17795,7 +17777,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="11">
         <v>49</v>
       </c>
@@ -17833,55 +17815,55 @@
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
@@ -17894,20 +17876,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076D9341-D6CA-5944-B0B0-C319BEDB9FF1}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
@@ -17921,7 +17903,7 @@
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -17939,7 +17921,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -17959,7 +17941,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -17979,7 +17961,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>5</v>
       </c>
@@ -17999,7 +17981,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -18017,7 +17999,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -18037,7 +18019,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -18055,7 +18037,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -18073,7 +18055,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>5</v>
       </c>
@@ -18091,7 +18073,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -18111,7 +18093,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>15</v>
       </c>
@@ -18131,7 +18113,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>15</v>
       </c>
@@ -18151,7 +18133,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>18</v>
       </c>
@@ -18169,7 +18151,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>19</v>
       </c>
@@ -18187,7 +18169,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>21</v>
       </c>
@@ -18207,7 +18189,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>22</v>
       </c>
@@ -18225,7 +18207,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>22</v>
       </c>
@@ -18243,7 +18225,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>23</v>
       </c>
@@ -18263,7 +18245,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>23</v>
       </c>
@@ -18286,7 +18268,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>23</v>
       </c>
@@ -18306,7 +18288,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>23</v>
       </c>
@@ -18326,7 +18308,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>23</v>
       </c>
@@ -18346,7 +18328,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>24</v>
       </c>
@@ -18366,7 +18348,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -18386,7 +18368,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -18406,7 +18388,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -18423,7 +18405,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -18440,7 +18422,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -18457,7 +18439,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -18474,7 +18456,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>27</v>
       </c>
@@ -18491,7 +18473,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>27</v>
       </c>
@@ -18508,7 +18490,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -18525,7 +18507,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30</v>
       </c>
@@ -18542,7 +18524,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -18560,7 +18542,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -18578,7 +18560,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -18596,7 +18578,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -18614,7 +18596,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>34</v>
       </c>
@@ -18632,7 +18614,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>37</v>
       </c>
@@ -18650,7 +18632,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -18668,7 +18650,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>43</v>
       </c>
@@ -18686,7 +18668,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>46</v>
       </c>
@@ -18703,7 +18685,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>46</v>
       </c>
@@ -18720,7 +18702,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>47</v>
       </c>
@@ -18737,7 +18719,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>49</v>
       </c>
@@ -18755,7 +18737,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>49</v>
       </c>
@@ -18773,75 +18755,75 @@
         <v>576</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
@@ -18859,25 +18841,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D7C4D6-1FBC-FA43-8D56-D815B6D49029}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84:J84"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -18909,7 +18891,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -18927,7 +18909,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="37"/>
     </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -18953,7 +18935,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -18979,7 +18961,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>5</v>
       </c>
@@ -19008,7 +18990,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -19037,7 +19019,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -19066,7 +19048,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -19095,7 +19077,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -19124,7 +19106,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -19153,7 +19135,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -19182,7 +19164,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -19211,7 +19193,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>5</v>
       </c>
@@ -19240,7 +19222,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>5</v>
       </c>
@@ -19269,7 +19251,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>5</v>
       </c>
@@ -19298,7 +19280,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>5</v>
       </c>
@@ -19327,7 +19309,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>5</v>
       </c>
@@ -19356,7 +19338,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>5</v>
       </c>
@@ -19385,7 +19367,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>5</v>
       </c>
@@ -19414,7 +19396,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>5</v>
       </c>
@@ -19443,7 +19425,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>5</v>
       </c>
@@ -19472,7 +19454,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>5</v>
       </c>
@@ -19501,7 +19483,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>7</v>
       </c>
@@ -19525,7 +19507,7 @@
       </c>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>15</v>
       </c>
@@ -19554,7 +19536,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>15</v>
       </c>
@@ -19586,7 +19568,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>15</v>
       </c>
@@ -19618,7 +19600,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>15</v>
       </c>
@@ -19650,7 +19632,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>18</v>
       </c>
@@ -19679,7 +19661,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>19</v>
       </c>
@@ -19708,7 +19690,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>21</v>
       </c>
@@ -19737,7 +19719,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>21</v>
       </c>
@@ -19766,7 +19748,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>21</v>
       </c>
@@ -19795,7 +19777,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>21</v>
       </c>
@@ -19824,7 +19806,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>21</v>
       </c>
@@ -19853,7 +19835,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>21</v>
       </c>
@@ -19882,7 +19864,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>21</v>
       </c>
@@ -19911,7 +19893,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>21</v>
       </c>
@@ -19940,7 +19922,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>21</v>
       </c>
@@ -19969,7 +19951,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>21</v>
       </c>
@@ -19998,7 +19980,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>21</v>
       </c>
@@ -20027,7 +20009,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>21</v>
       </c>
@@ -20056,7 +20038,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>22</v>
       </c>
@@ -20085,7 +20067,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>22</v>
       </c>
@@ -20114,7 +20096,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>22</v>
       </c>
@@ -20143,7 +20125,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>23</v>
       </c>
@@ -20172,7 +20154,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>23</v>
       </c>
@@ -20201,7 +20183,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>23</v>
       </c>
@@ -20230,7 +20212,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>23</v>
       </c>
@@ -20259,7 +20241,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>23</v>
       </c>
@@ -20288,7 +20270,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>23</v>
       </c>
@@ -20317,7 +20299,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>24</v>
       </c>
@@ -20346,7 +20328,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>24</v>
       </c>
@@ -20375,7 +20357,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>24</v>
       </c>
@@ -20404,7 +20386,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>25</v>
       </c>
@@ -20433,7 +20415,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="29" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>26</v>
       </c>
@@ -20462,7 +20444,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>26</v>
       </c>
@@ -20491,7 +20473,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>26</v>
       </c>
@@ -20520,7 +20502,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>27</v>
       </c>
@@ -20549,7 +20531,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>27</v>
       </c>
@@ -20578,7 +20560,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>27</v>
       </c>
@@ -20607,7 +20589,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>27</v>
       </c>
@@ -20636,7 +20618,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>30</v>
       </c>
@@ -20665,7 +20647,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>30</v>
       </c>
@@ -20694,7 +20676,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>30</v>
       </c>
@@ -20723,7 +20705,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>32</v>
       </c>
@@ -20753,7 +20735,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>33</v>
       </c>
@@ -20783,7 +20765,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>33</v>
       </c>
@@ -20813,7 +20795,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>33</v>
       </c>
@@ -20843,7 +20825,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>34</v>
       </c>
@@ -20873,7 +20855,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>34</v>
       </c>
@@ -20903,7 +20885,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>34</v>
       </c>
@@ -20933,7 +20915,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>34</v>
       </c>
@@ -20956,14 +20938,14 @@
         <v>593</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>792</v>
+        <v>609</v>
       </c>
       <c r="I72" s="11"/>
       <c r="J72" s="11" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>34</v>
       </c>
@@ -20993,7 +20975,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="11">
         <v>34</v>
       </c>
@@ -21016,14 +20998,14 @@
         <v>593</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>609</v>
+        <v>792</v>
       </c>
       <c r="I74" s="11"/>
       <c r="J74" s="11" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="11">
         <v>34</v>
       </c>
@@ -21053,7 +21035,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="11">
         <v>37</v>
       </c>
@@ -21083,7 +21065,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>39</v>
       </c>
@@ -21113,7 +21095,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>43</v>
       </c>
@@ -21143,7 +21125,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="11">
         <v>43</v>
       </c>
@@ -21173,7 +21155,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
         <v>43</v>
       </c>
@@ -21203,7 +21185,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>46</v>
       </c>
@@ -21232,7 +21214,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>46</v>
       </c>
@@ -21261,7 +21243,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>46</v>
       </c>
@@ -21290,7 +21272,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>47</v>
       </c>
@@ -21319,7 +21301,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="11">
         <v>49</v>
       </c>
@@ -21349,7 +21331,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="11">
         <v>49</v>
       </c>
@@ -21388,23 +21370,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5908E7C3-AF9B-C045-9C8C-7C39702D5D07}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76:H76"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>116</v>
       </c>
@@ -21430,7 +21412,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -21444,7 +21426,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -21471,7 +21453,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -21498,7 +21480,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>5</v>
       </c>
@@ -21525,7 +21507,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21552,7 +21534,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -21579,7 +21561,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -21606,7 +21588,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -21633,7 +21615,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -21660,7 +21642,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -21687,7 +21669,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -21714,7 +21696,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>5</v>
       </c>
@@ -21741,7 +21723,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>5</v>
       </c>
@@ -21768,7 +21750,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>5</v>
       </c>
@@ -21795,7 +21777,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>5</v>
       </c>
@@ -21822,7 +21804,7 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>5</v>
       </c>
@@ -21849,7 +21831,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>5</v>
       </c>
@@ -21876,7 +21858,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>5</v>
       </c>
@@ -21903,7 +21885,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>5</v>
       </c>
@@ -21930,7 +21912,7 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>5</v>
       </c>
@@ -21957,7 +21939,7 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>7</v>
       </c>
@@ -21981,7 +21963,7 @@
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>15</v>
       </c>
@@ -22007,7 +21989,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>15</v>
       </c>
@@ -22033,7 +22015,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -22059,7 +22041,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -22085,7 +22067,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>21</v>
       </c>
@@ -22112,7 +22094,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -22139,7 +22121,7 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>21</v>
       </c>
@@ -22166,7 +22148,7 @@
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>21</v>
       </c>
@@ -22193,7 +22175,7 @@
       </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>21</v>
       </c>
@@ -22220,7 +22202,7 @@
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>21</v>
       </c>
@@ -22247,7 +22229,7 @@
       </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>21</v>
       </c>
@@ -22274,7 +22256,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>21</v>
       </c>
@@ -22301,7 +22283,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>21</v>
       </c>
@@ -22328,7 +22310,7 @@
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>21</v>
       </c>
@@ -22355,7 +22337,7 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>21</v>
       </c>
@@ -22382,7 +22364,7 @@
       </c>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>21</v>
       </c>
@@ -22409,7 +22391,7 @@
       </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>22</v>
       </c>
@@ -22435,7 +22417,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>22</v>
       </c>
@@ -22461,7 +22443,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>22</v>
       </c>
@@ -22487,7 +22469,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>23</v>
       </c>
@@ -22513,7 +22495,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>23</v>
       </c>
@@ -22539,7 +22521,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>23</v>
       </c>
@@ -22565,7 +22547,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>23</v>
       </c>
@@ -22591,7 +22573,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>23</v>
       </c>
@@ -22617,7 +22599,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>23</v>
       </c>
@@ -22643,7 +22625,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>24</v>
       </c>
@@ -22670,7 +22652,7 @@
       </c>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>24</v>
       </c>
@@ -22697,7 +22679,7 @@
       </c>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>24</v>
       </c>
@@ -22724,7 +22706,7 @@
       </c>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>25</v>
       </c>
@@ -22750,7 +22732,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>26</v>
       </c>
@@ -22774,7 +22756,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>26</v>
       </c>
@@ -22800,7 +22782,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>26</v>
       </c>
@@ -22826,7 +22808,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>27</v>
       </c>
@@ -22852,7 +22834,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>27</v>
       </c>
@@ -22878,7 +22860,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>27</v>
       </c>
@@ -22904,7 +22886,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>27</v>
       </c>
@@ -22930,7 +22912,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>30</v>
       </c>
@@ -22956,7 +22938,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>30</v>
       </c>
@@ -22982,7 +22964,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>30</v>
       </c>
@@ -23008,7 +22990,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
         <v>32</v>
       </c>
@@ -23034,7 +23016,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
         <v>33</v>
       </c>
@@ -23060,7 +23042,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
         <v>34</v>
       </c>
@@ -23086,7 +23068,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="11">
         <v>34</v>
       </c>
@@ -23112,7 +23094,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="11">
         <v>34</v>
       </c>
@@ -23138,7 +23120,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="11">
         <v>34</v>
       </c>
@@ -23164,7 +23146,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="11">
         <v>34</v>
       </c>
@@ -23190,7 +23172,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="11">
         <v>37</v>
       </c>
@@ -23216,7 +23198,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>39</v>
       </c>
@@ -23242,7 +23224,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>43</v>
       </c>
@@ -23268,7 +23250,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="11">
         <v>43</v>
       </c>
@@ -23294,7 +23276,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="11">
         <v>43</v>
       </c>
@@ -23320,7 +23302,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>46</v>
       </c>
@@ -23346,7 +23328,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>46</v>
       </c>
@@ -23372,7 +23354,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>47</v>
       </c>
@@ -23398,7 +23380,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
         <v>49</v>
       </c>
@@ -23424,7 +23406,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="11">
         <v>49</v>
       </c>
@@ -23459,39 +23441,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757F64B5-E536-2342-B5E0-205055B80BBA}">
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="O4" sqref="O4:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="64.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="64.1640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
@@ -23525,7 +23507,7 @@
       <c r="Y1" s="50"/>
       <c r="Z1" s="50"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="50"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -23603,7 +23585,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -23671,7 +23653,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -23725,7 +23707,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -23779,7 +23761,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -23838,7 +23820,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -23897,7 +23879,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -23956,7 +23938,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -24015,7 +23997,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="126" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="136" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -24074,7 +24056,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="119" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -24133,7 +24115,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -24190,7 +24172,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="126" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -24249,7 +24231,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -24306,7 +24288,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -24365,7 +24347,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -24424,7 +24406,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -24483,7 +24465,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -24542,7 +24524,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -24601,7 +24583,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="238" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -24657,7 +24639,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="119" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>935</v>
       </c>
@@ -24713,7 +24695,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="119" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>987</v>
       </c>
@@ -24769,7 +24751,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="119" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>1032</v>
       </c>
@@ -24828,7 +24810,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>874</v>
       </c>
@@ -24885,7 +24867,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -24944,7 +24926,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -25003,7 +24985,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="30" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="30" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
         <v>47</v>
       </c>
@@ -25062,7 +25044,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="30" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" s="30" customFormat="1" ht="323" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
         <v>49</v>
       </c>
@@ -25121,7 +25103,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="30" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="30" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
         <v>49</v>
       </c>
@@ -25178,7 +25160,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>890</v>
       </c>
@@ -25237,7 +25219,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>894</v>
       </c>
@@ -25296,7 +25278,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>894</v>
       </c>
@@ -25355,7 +25337,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>904</v>
       </c>
@@ -25414,7 +25396,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>911</v>
       </c>
@@ -25473,7 +25455,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>911</v>
       </c>
@@ -25532,7 +25514,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="221" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>1052</v>
       </c>
@@ -25588,7 +25570,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="119" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>1079</v>
       </c>
@@ -25644,7 +25626,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>1079</v>
       </c>
@@ -25700,7 +25682,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -25711,7 +25693,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -25722,7 +25704,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -25733,7 +25715,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -25744,7 +25726,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -25755,7 +25737,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -25766,7 +25748,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -25777,7 +25759,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -25788,7 +25770,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -25799,7 +25781,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -25810,7 +25792,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -25821,7 +25803,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -25832,7 +25814,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -25843,7 +25825,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -25854,7 +25836,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -25865,7 +25847,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -25876,7 +25858,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -25887,7 +25869,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -25898,7 +25880,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -25946,18 +25928,18 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -25980,7 +25962,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -26000,7 +25982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -26020,7 +26002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -26040,7 +26022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>9</v>
       </c>
@@ -26060,7 +26042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>10</v>
       </c>
@@ -26080,7 +26062,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>10</v>
       </c>
@@ -26100,7 +26082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>11</v>
       </c>
@@ -26120,7 +26102,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>12</v>
       </c>
@@ -26140,7 +26122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>12</v>
       </c>
@@ -26160,7 +26142,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>14</v>
       </c>
@@ -26180,7 +26162,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>14</v>
       </c>
@@ -26200,7 +26182,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>14</v>
       </c>
@@ -26220,7 +26202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>17</v>
       </c>
@@ -26240,7 +26222,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>17</v>
       </c>
@@ -26260,7 +26242,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>17</v>
       </c>
@@ -26280,7 +26262,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>18</v>
       </c>
@@ -26300,7 +26282,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>18</v>
       </c>
@@ -26320,7 +26302,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>21</v>
       </c>
@@ -26340,7 +26322,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <v>28</v>
       </c>
@@ -26360,7 +26342,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>28</v>
       </c>
@@ -26380,7 +26362,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>28</v>
       </c>
@@ -26400,7 +26382,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>28</v>
       </c>
@@ -26420,7 +26402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>30</v>
       </c>
@@ -26440,7 +26422,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>31</v>
       </c>
@@ -26460,7 +26442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>32</v>
       </c>
@@ -26480,7 +26462,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>33</v>
       </c>
@@ -26500,7 +26482,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>33</v>
       </c>
@@ -26520,7 +26502,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>33</v>
       </c>
@@ -26540,7 +26522,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>38</v>
       </c>
@@ -26560,7 +26542,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>38</v>
       </c>
@@ -26580,7 +26562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>40</v>
       </c>
@@ -26600,7 +26582,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>42</v>
       </c>
@@ -26620,7 +26602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>42</v>
       </c>
@@ -26640,7 +26622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>43</v>
       </c>
@@ -26660,7 +26642,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="11">
         <v>44</v>
       </c>
@@ -26680,7 +26662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>44</v>
       </c>
@@ -26700,7 +26682,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>46</v>
       </c>
@@ -26720,7 +26702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>47</v>
       </c>
@@ -26740,7 +26722,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>47</v>
       </c>
@@ -26785,17 +26767,17 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -26815,7 +26797,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -26835,7 +26817,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -26855,7 +26837,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -26875,7 +26857,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>9</v>
       </c>
@@ -26895,7 +26877,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>10</v>
       </c>
@@ -26915,7 +26897,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>10</v>
       </c>
@@ -26935,7 +26917,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>11</v>
       </c>
@@ -26955,7 +26937,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>12</v>
       </c>
@@ -26975,7 +26957,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>12</v>
       </c>
@@ -26995,7 +26977,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>14</v>
       </c>
@@ -27015,7 +26997,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>14</v>
       </c>
@@ -27035,7 +27017,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>14</v>
       </c>
@@ -27055,7 +27037,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>14</v>
       </c>
@@ -27075,7 +27057,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>17</v>
       </c>
@@ -27095,7 +27077,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>17</v>
       </c>
@@ -27115,7 +27097,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>17</v>
       </c>
@@ -27135,7 +27117,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>18</v>
       </c>
@@ -27155,7 +27137,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -27175,7 +27157,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>21</v>
       </c>
@@ -27195,7 +27177,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <v>28</v>
       </c>
@@ -27215,7 +27197,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>28</v>
       </c>
@@ -27235,7 +27217,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>28</v>
       </c>
@@ -27255,7 +27237,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>28</v>
       </c>
@@ -27275,7 +27257,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>28</v>
       </c>
@@ -27295,7 +27277,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>28</v>
       </c>
@@ -27315,7 +27297,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>30</v>
       </c>
@@ -27335,7 +27317,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>31</v>
       </c>
@@ -27355,7 +27337,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>31</v>
       </c>
@@ -27375,7 +27357,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>31</v>
       </c>
@@ -27395,7 +27377,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>31</v>
       </c>
@@ -27415,7 +27397,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>32</v>
       </c>
@@ -27435,7 +27417,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>33</v>
       </c>
@@ -27455,7 +27437,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -27475,7 +27457,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>33</v>
       </c>
@@ -27495,7 +27477,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>38</v>
       </c>
@@ -27515,7 +27497,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>38</v>
       </c>
@@ -27535,7 +27517,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="11">
         <v>40</v>
       </c>
@@ -27555,7 +27537,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>42</v>
       </c>
@@ -27575,7 +27557,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="11">
         <v>42</v>
       </c>
@@ -27595,7 +27577,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>42</v>
       </c>
@@ -27615,7 +27597,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>42</v>
       </c>
@@ -27635,7 +27617,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
         <v>43</v>
       </c>
@@ -27655,7 +27637,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
         <v>44</v>
       </c>
@@ -27675,7 +27657,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -27695,7 +27677,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -27715,7 +27697,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="11">
         <v>44</v>
       </c>
@@ -27735,7 +27717,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>46</v>
       </c>
@@ -27755,7 +27737,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>47</v>
       </c>
@@ -27775,7 +27757,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>47</v>
       </c>

--- a/Raw Input Data/Processing/Masking_Tool_Input_Excel_v4_Consolidated.xlsx
+++ b/Raw Input Data/Processing/Masking_Tool_Input_Excel_v4_Consolidated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelfong/hase-scripts/Raw Input Data/Processing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E186FAD-7EBA-2E4C-BE7C-DB8B96D393B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCC03A5-D716-4E1C-8457-359EBE4B7D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" firstSheet="2" activeTab="4" xr2:uid="{62A6D20C-1BCA-9641-AAE7-542CC13A6031}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" firstSheet="7" activeTab="8" xr2:uid="{62A6D20C-1BCA-9641-AAE7-542CC13A6031}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC_General" sheetId="1" r:id="rId1"/>
@@ -1009,7 +1009,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
-        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3716,7 +3715,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -3764,7 +3763,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3846,7 +3844,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3875,6 +3873,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3887,12 +3891,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4017,6 +4021,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -4045,9 +4052,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4085,7 +4092,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4191,7 +4198,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4333,7 +4340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4361,29 +4368,29 @@
       <selection activeCell="D20" sqref="D20:O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="32.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
@@ -4398,7 +4405,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -4452,7 +4459,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -4504,7 +4511,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>299</v>
       </c>
@@ -4557,7 +4564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>299</v>
       </c>
@@ -4610,7 +4617,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>305</v>
       </c>
@@ -4666,7 +4673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -4722,7 +4729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4775,7 +4782,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -4828,7 +4835,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -4881,7 +4888,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>935</v>
       </c>
@@ -4937,7 +4944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>1032</v>
       </c>
@@ -4990,7 +4997,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>840</v>
       </c>
@@ -5043,7 +5050,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>48</v>
       </c>
@@ -5096,7 +5103,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -5149,7 +5156,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>49</v>
       </c>
@@ -5202,7 +5209,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>850</v>
       </c>
@@ -5252,7 +5259,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>854</v>
       </c>
@@ -5305,7 +5312,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>862</v>
       </c>
@@ -5358,7 +5365,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>1052</v>
       </c>
@@ -5408,7 +5415,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="68" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>867</v>
       </c>
@@ -5461,147 +5468,147 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
@@ -5635,20 +5642,20 @@
       <selection activeCell="A38" sqref="A38:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -5677,7 +5684,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -5703,7 +5710,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5729,7 +5736,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -5755,7 +5762,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>9</v>
       </c>
@@ -5781,7 +5788,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>10</v>
       </c>
@@ -5807,7 +5814,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>10</v>
       </c>
@@ -5833,7 +5840,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>11</v>
       </c>
@@ -5859,7 +5866,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>12</v>
       </c>
@@ -5885,7 +5892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>12</v>
       </c>
@@ -5911,7 +5918,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>14</v>
       </c>
@@ -5937,7 +5944,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>14</v>
       </c>
@@ -5963,7 +5970,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>17</v>
       </c>
@@ -5989,7 +5996,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>17</v>
       </c>
@@ -6015,7 +6022,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>17</v>
       </c>
@@ -6041,7 +6048,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>18</v>
       </c>
@@ -6067,7 +6074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>18</v>
       </c>
@@ -6093,7 +6100,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>21</v>
       </c>
@@ -6119,7 +6126,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>28</v>
       </c>
@@ -6145,7 +6152,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -6171,7 +6178,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -6197,7 +6204,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>28</v>
       </c>
@@ -6223,7 +6230,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>30</v>
       </c>
@@ -6249,7 +6256,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>31</v>
       </c>
@@ -6275,7 +6282,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>32</v>
       </c>
@@ -6301,7 +6308,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>33</v>
       </c>
@@ -6330,7 +6337,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>33</v>
       </c>
@@ -6356,7 +6363,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>33</v>
       </c>
@@ -6382,7 +6389,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>38</v>
       </c>
@@ -6408,7 +6415,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>38</v>
       </c>
@@ -6434,7 +6441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>40</v>
       </c>
@@ -6460,7 +6467,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>42</v>
       </c>
@@ -6489,7 +6496,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>42</v>
       </c>
@@ -6518,7 +6525,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>43</v>
       </c>
@@ -6544,7 +6551,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>44</v>
       </c>
@@ -6570,7 +6577,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>44</v>
       </c>
@@ -6596,7 +6603,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>46</v>
       </c>
@@ -6622,7 +6629,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>47</v>
       </c>
@@ -6648,7 +6655,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>47</v>
       </c>
@@ -6696,42 +6703,42 @@
   <dimension ref="A1:AB59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="130.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="103" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="92.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="92.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="60.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="38.875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
@@ -6769,7 +6776,7 @@
       <c r="AA1" s="50"/>
       <c r="AB1" s="50"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -6853,7 +6860,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -6939,7 +6946,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -7025,7 +7032,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -7111,7 +7118,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>37</v>
       </c>
@@ -7197,7 +7204,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -7283,7 +7290,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -7369,7 +7376,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -7455,7 +7462,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -7541,7 +7548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -7627,7 +7634,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -7710,7 +7717,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -7793,7 +7800,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -7879,7 +7886,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>987</v>
       </c>
@@ -7962,7 +7969,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>987</v>
       </c>
@@ -8045,7 +8052,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1032</v>
       </c>
@@ -8131,7 +8138,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -8217,7 +8224,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -8300,7 +8307,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>49</v>
       </c>
@@ -8386,7 +8393,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>904</v>
       </c>
@@ -8472,7 +8479,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>904</v>
       </c>
@@ -8552,7 +8559,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1052</v>
       </c>
@@ -8635,7 +8642,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1079</v>
       </c>
@@ -8718,7 +8725,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1101</v>
       </c>
@@ -8804,139 +8811,139 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
@@ -8991,52 +8998,52 @@
       <selection activeCell="D47" sqref="D47:AF47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="43.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.125" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
@@ -9092,7 +9099,7 @@
       <c r="AQ1" s="50"/>
       <c r="AR1" s="50"/>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="49"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -9224,7 +9231,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -9292,7 +9299,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>292</v>
       </c>
@@ -9369,7 +9376,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>293</v>
       </c>
@@ -9435,7 +9442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>313</v>
       </c>
@@ -9501,7 +9508,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>313</v>
       </c>
@@ -9567,7 +9574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>313</v>
       </c>
@@ -9633,7 +9640,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>305</v>
       </c>
@@ -9690,7 +9697,7 @@
       <c r="AA9" s="7"/>
       <c r="AB9" s="7"/>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -9747,7 +9754,7 @@
       <c r="AA10" s="7"/>
       <c r="AB10" s="7"/>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -9804,7 +9811,7 @@
       <c r="AA11" s="7"/>
       <c r="AB11" s="7"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
@@ -9861,7 +9868,7 @@
       <c r="AA12" s="7"/>
       <c r="AB12" s="7"/>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -9924,7 +9931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -9990,7 +9997,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
@@ -10056,7 +10063,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -10122,7 +10129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -10188,7 +10195,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -10254,7 +10261,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -10320,7 +10327,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>45</v>
       </c>
@@ -10386,7 +10393,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -10455,7 +10462,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>974</v>
       </c>
@@ -10524,7 +10531,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>974</v>
       </c>
@@ -10596,7 +10603,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>974</v>
       </c>
@@ -10662,7 +10669,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>983</v>
       </c>
@@ -10731,7 +10738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>983</v>
       </c>
@@ -10800,7 +10807,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>987</v>
       </c>
@@ -10869,7 +10876,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>987</v>
       </c>
@@ -10938,7 +10945,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>987</v>
       </c>
@@ -11007,7 +11014,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>987</v>
       </c>
@@ -11076,7 +11083,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>987</v>
       </c>
@@ -11145,7 +11152,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11211,7 +11218,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11277,7 +11284,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11343,7 +11350,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>1032</v>
       </c>
@@ -11409,7 +11416,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>874</v>
       </c>
@@ -11475,7 +11482,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>47</v>
       </c>
@@ -11541,7 +11548,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>48</v>
       </c>
@@ -11607,7 +11614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -11673,7 +11680,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>49</v>
       </c>
@@ -11739,7 +11746,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>850</v>
       </c>
@@ -11805,7 +11812,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>890</v>
       </c>
@@ -11871,7 +11878,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>911</v>
       </c>
@@ -11937,7 +11944,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1052</v>
       </c>
@@ -12003,7 +12010,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>932</v>
       </c>
@@ -12069,7 +12076,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>932</v>
       </c>
@@ -12135,7 +12142,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>1101</v>
       </c>
@@ -12198,7 +12205,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="X48" s="2"/>
@@ -12206,7 +12213,7 @@
       <c r="AA48" s="7"/>
       <c r="AB48" s="7"/>
     </row>
-    <row r="49" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="X49" s="2"/>
@@ -12214,7 +12221,7 @@
       <c r="AA49" s="7"/>
       <c r="AB49" s="7"/>
     </row>
-    <row r="50" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="X50" s="2"/>
@@ -12222,7 +12229,7 @@
       <c r="AA50" s="7"/>
       <c r="AB50" s="7"/>
     </row>
-    <row r="51" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="X51" s="2"/>
@@ -12230,7 +12237,7 @@
       <c r="AA51" s="7"/>
       <c r="AB51" s="7"/>
     </row>
-    <row r="52" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="X52" s="2"/>
@@ -12238,7 +12245,7 @@
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
     </row>
-    <row r="53" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="X53" s="2"/>
@@ -12246,7 +12253,7 @@
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
     </row>
-    <row r="54" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="X54" s="2"/>
@@ -12254,7 +12261,7 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
     </row>
-    <row r="55" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="X55" s="2"/>
@@ -12262,7 +12269,7 @@
       <c r="AA55" s="7"/>
       <c r="AB55" s="7"/>
     </row>
-    <row r="56" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="X56" s="2"/>
@@ -12270,7 +12277,7 @@
       <c r="AA56" s="7"/>
       <c r="AB56" s="7"/>
     </row>
-    <row r="57" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="X57" s="2"/>
@@ -12278,7 +12285,7 @@
       <c r="AA57" s="7"/>
       <c r="AB57" s="7"/>
     </row>
-    <row r="58" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="X58" s="2"/>
@@ -12286,7 +12293,7 @@
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
     </row>
-    <row r="59" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="X59" s="2"/>
@@ -12294,7 +12301,7 @@
       <c r="AA59" s="7"/>
       <c r="AB59" s="7"/>
     </row>
-    <row r="60" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="X60" s="2"/>
@@ -12302,7 +12309,7 @@
       <c r="AA60" s="7"/>
       <c r="AB60" s="7"/>
     </row>
-    <row r="61" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="X61" s="2"/>
@@ -12310,7 +12317,7 @@
       <c r="AA61" s="7"/>
       <c r="AB61" s="7"/>
     </row>
-    <row r="62" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="X62" s="2"/>
@@ -12318,7 +12325,7 @@
       <c r="AA62" s="7"/>
       <c r="AB62" s="7"/>
     </row>
-    <row r="63" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="X63" s="2"/>
@@ -12326,7 +12333,7 @@
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
     </row>
-    <row r="64" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="X64" s="2"/>
@@ -12334,7 +12341,7 @@
       <c r="AA64" s="7"/>
       <c r="AB64" s="7"/>
     </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="X65" s="2"/>
@@ -12342,7 +12349,7 @@
       <c r="AA65" s="7"/>
       <c r="AB65" s="7"/>
     </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="X66" s="2"/>
@@ -12350,7 +12357,7 @@
       <c r="AA66" s="7"/>
       <c r="AB66" s="7"/>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="X67" s="2"/>
@@ -12358,7 +12365,7 @@
       <c r="AA67" s="7"/>
       <c r="AB67" s="7"/>
     </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="X68" s="2"/>
@@ -12366,7 +12373,7 @@
       <c r="AA68" s="7"/>
       <c r="AB68" s="7"/>
     </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="X69" s="2"/>
@@ -12374,7 +12381,7 @@
       <c r="AA69" s="7"/>
       <c r="AB69" s="7"/>
     </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="X70" s="2"/>
@@ -12382,7 +12389,7 @@
       <c r="AA70" s="7"/>
       <c r="AB70" s="7"/>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="X71" s="2"/>
@@ -12390,7 +12397,7 @@
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
     </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="X72" s="2"/>
@@ -12398,7 +12405,7 @@
       <c r="AA72" s="7"/>
       <c r="AB72" s="7"/>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="X73" s="2"/>
@@ -12406,7 +12413,7 @@
       <c r="AA73" s="7"/>
       <c r="AB73" s="7"/>
     </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="X74" s="2"/>
@@ -12414,7 +12421,7 @@
       <c r="AA74" s="7"/>
       <c r="AB74" s="7"/>
     </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="X75" s="2"/>
@@ -12422,7 +12429,7 @@
       <c r="AA75" s="7"/>
       <c r="AB75" s="7"/>
     </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="X76" s="2"/>
@@ -12430,7 +12437,7 @@
       <c r="AA76" s="7"/>
       <c r="AB76" s="7"/>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="X77" s="2"/>
@@ -12438,7 +12445,7 @@
       <c r="AA77" s="7"/>
       <c r="AB77" s="7"/>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="X78" s="2"/>
@@ -12446,7 +12453,7 @@
       <c r="AA78" s="7"/>
       <c r="AB78" s="7"/>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="X79" s="2"/>
@@ -12454,7 +12461,7 @@
       <c r="AA79" s="7"/>
       <c r="AB79" s="7"/>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="X80" s="2"/>
@@ -12462,7 +12469,7 @@
       <c r="AA80" s="7"/>
       <c r="AB80" s="7"/>
     </row>
-    <row r="81" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="X81" s="2"/>
@@ -12547,33 +12554,33 @@
       <selection activeCell="P47" sqref="A47:P47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
     <col min="17" max="19" width="13.5" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -12647,7 +12654,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -12691,7 +12698,7 @@
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -12735,7 +12742,7 @@
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -12779,7 +12786,7 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -12823,7 +12830,7 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -12865,7 +12872,7 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -12907,7 +12914,7 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -12951,7 +12958,7 @@
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -12993,7 +13000,7 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>13</v>
       </c>
@@ -13047,7 +13054,7 @@
       </c>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>15</v>
       </c>
@@ -13091,7 +13098,7 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>18</v>
       </c>
@@ -13133,7 +13140,7 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>23</v>
       </c>
@@ -13160,7 +13167,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>23</v>
       </c>
@@ -13187,7 +13194,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23</v>
       </c>
@@ -13214,7 +13221,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23</v>
       </c>
@@ -13241,7 +13248,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>23</v>
       </c>
@@ -13268,7 +13275,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>24</v>
       </c>
@@ -13310,7 +13317,7 @@
       <c r="W18" s="11"/>
       <c r="X18" s="11"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>24</v>
       </c>
@@ -13352,7 +13359,7 @@
       <c r="W19" s="11"/>
       <c r="X19" s="11"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>24</v>
       </c>
@@ -13394,7 +13401,7 @@
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25</v>
       </c>
@@ -13421,7 +13428,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>27</v>
       </c>
@@ -13448,7 +13455,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>27</v>
       </c>
@@ -13475,7 +13482,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>27</v>
       </c>
@@ -13502,7 +13509,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>29</v>
       </c>
@@ -13529,7 +13536,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>29</v>
       </c>
@@ -13556,7 +13563,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>30</v>
       </c>
@@ -13583,7 +13590,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>30</v>
       </c>
@@ -13610,7 +13617,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>30</v>
       </c>
@@ -13637,7 +13644,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -13664,7 +13671,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -13691,7 +13698,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -13718,7 +13725,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -13745,7 +13752,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -13772,7 +13779,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -13799,7 +13806,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>32</v>
       </c>
@@ -13841,7 +13848,7 @@
       <c r="W36" s="11"/>
       <c r="X36" s="11"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>33</v>
       </c>
@@ -13883,7 +13890,7 @@
       <c r="W37" s="11"/>
       <c r="X37" s="11"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -13925,7 +13932,7 @@
       <c r="W38" s="11"/>
       <c r="X38" s="11"/>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -13967,7 +13974,7 @@
       <c r="W39" s="11"/>
       <c r="X39" s="11"/>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -14009,7 +14016,7 @@
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -14051,7 +14058,7 @@
       <c r="W41" s="11"/>
       <c r="X41" s="11"/>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -14093,7 +14100,7 @@
       <c r="W42" s="11"/>
       <c r="X42" s="11"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>44</v>
       </c>
@@ -14135,7 +14142,7 @@
       <c r="W43" s="11"/>
       <c r="X43" s="11"/>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>46</v>
       </c>
@@ -14162,7 +14169,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>48</v>
       </c>
@@ -14204,7 +14211,7 @@
       <c r="W45" s="11"/>
       <c r="X45" s="11"/>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>48</v>
       </c>
@@ -14246,7 +14253,7 @@
       <c r="W46" s="11"/>
       <c r="X46" s="11"/>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50</v>
       </c>
@@ -14270,559 +14277,559 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="2"/>
     </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J52" s="2"/>
     </row>
-    <row r="53" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J54" s="2"/>
     </row>
-    <row r="55" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J55" s="2"/>
     </row>
-    <row r="56" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J56" s="2"/>
     </row>
-    <row r="57" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J57" s="2"/>
     </row>
-    <row r="58" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J58" s="2"/>
     </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J59" s="2"/>
     </row>
-    <row r="60" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J60" s="2"/>
     </row>
-    <row r="61" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J61" s="2"/>
     </row>
-    <row r="62" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J62" s="2"/>
     </row>
-    <row r="63" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J63" s="2"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" s="2"/>
     </row>
-    <row r="66" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" s="2"/>
     </row>
-    <row r="67" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" s="2"/>
     </row>
-    <row r="68" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" s="2"/>
     </row>
-    <row r="69" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" s="2"/>
     </row>
-    <row r="70" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" s="2"/>
     </row>
-    <row r="71" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" s="2"/>
     </row>
-    <row r="72" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72" s="2"/>
     </row>
-    <row r="73" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" s="2"/>
     </row>
-    <row r="74" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" s="2"/>
     </row>
-    <row r="77" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" s="2"/>
     </row>
-    <row r="78" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J78" s="2"/>
     </row>
-    <row r="79" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" s="2"/>
     </row>
-    <row r="80" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J80" s="2"/>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" s="2"/>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" s="2"/>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" s="2"/>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" s="2"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="2"/>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" s="2"/>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" s="2"/>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" s="2"/>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" s="2"/>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" s="2"/>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J94" s="2"/>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J95" s="2"/>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J96" s="2"/>
     </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J98" s="2"/>
     </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J99" s="2"/>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J100" s="2"/>
     </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J101" s="2"/>
     </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J102" s="2"/>
     </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J103" s="2"/>
     </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J104" s="2"/>
     </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J105" s="2"/>
     </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J106" s="2"/>
     </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J107" s="2"/>
     </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J109" s="2"/>
     </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J110" s="2"/>
     </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J111" s="2"/>
     </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J112" s="2"/>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" s="2"/>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" s="2"/>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" s="2"/>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" s="2"/>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" s="2"/>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" s="2"/>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" s="2"/>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" s="2"/>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" s="2"/>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" s="2"/>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" s="2"/>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" s="2"/>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" s="2"/>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" s="2"/>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" s="2"/>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" s="2"/>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" s="2"/>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" s="2"/>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" s="2"/>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" s="2"/>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" s="2"/>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" s="2"/>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" s="2"/>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" s="2"/>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" s="2"/>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" s="2"/>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" s="2"/>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" s="2"/>
     </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" s="2"/>
     </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J145" s="2"/>
     </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J146" s="2"/>
     </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J147" s="2"/>
     </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J148" s="2"/>
     </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J149" s="2"/>
     </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J150" s="2"/>
     </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J151" s="2"/>
     </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J152" s="2"/>
     </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J153" s="2"/>
     </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J154" s="2"/>
     </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J155" s="2"/>
     </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J156" s="2"/>
     </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J157" s="2"/>
     </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J158" s="2"/>
     </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J159" s="2"/>
     </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J160" s="2"/>
     </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" s="2"/>
     </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" s="2"/>
     </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" s="2"/>
     </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" s="2"/>
     </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J165" s="2"/>
     </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J166" s="2"/>
     </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J167" s="2"/>
     </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J168" s="2"/>
     </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J169" s="2"/>
     </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J170" s="2"/>
     </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J171" s="2"/>
     </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J172" s="2"/>
     </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J173" s="2"/>
     </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J174" s="2"/>
     </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J175" s="2"/>
     </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J176" s="2"/>
     </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J177" s="2"/>
     </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J178" s="2"/>
     </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J179" s="2"/>
     </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J180" s="2"/>
     </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J181" s="2"/>
     </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J182" s="2"/>
     </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J183" s="2"/>
     </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J184" s="2"/>
     </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J185" s="2"/>
     </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J186" s="2"/>
     </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J187" s="2"/>
     </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J188" s="2"/>
     </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J189" s="2"/>
     </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J190" s="2"/>
     </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J192" s="2"/>
     </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J193" s="2"/>
     </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J194" s="2"/>
     </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J195" s="2"/>
     </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J196" s="2"/>
     </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J197" s="2"/>
     </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J198" s="2"/>
     </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J199" s="2"/>
     </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J200" s="2"/>
     </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J201" s="2"/>
     </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J202" s="2"/>
     </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J203" s="2"/>
     </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J204" s="2"/>
     </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J205" s="2"/>
     </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J206" s="2"/>
     </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J207" s="2"/>
     </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J208" s="2"/>
     </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J209" s="2"/>
     </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J210" s="2"/>
     </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J211" s="2"/>
     </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J212" s="2"/>
     </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J213" s="2"/>
     </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J214" s="2"/>
     </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J215" s="2"/>
     </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J216" s="2"/>
     </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J217" s="2"/>
     </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J218" s="2"/>
     </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J219" s="2"/>
     </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J220" s="2"/>
     </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J221" s="2"/>
     </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J222" s="2"/>
     </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J223" s="2"/>
     </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J224" s="2"/>
     </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J225" s="2"/>
     </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J226" s="2"/>
     </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J227" s="2"/>
     </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J228" s="2"/>
     </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J229" s="2"/>
     </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J230" s="2"/>
     </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J231" s="2"/>
     </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J232" s="2"/>
     </row>
   </sheetData>
@@ -14863,13 +14870,13 @@
       <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>69</v>
       </c>
@@ -14883,7 +14890,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -14897,7 +14904,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
@@ -14911,7 +14918,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>84</v>
@@ -14923,7 +14930,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>70</v>
       </c>
@@ -14931,7 +14938,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>71</v>
       </c>
@@ -14942,7 +14949,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>72</v>
       </c>
@@ -14953,7 +14960,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>73</v>
       </c>
@@ -14964,12 +14971,12 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -14977,7 +14984,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>76</v>
       </c>
@@ -14985,7 +14992,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>64</v>
       </c>
@@ -14993,7 +15000,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>77</v>
       </c>
@@ -15001,7 +15008,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>78</v>
       </c>
@@ -15009,17 +15016,17 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>81</v>
       </c>
@@ -15037,19 +15044,19 @@
       <selection activeCell="D23" sqref="D23:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.875" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>116</v>
       </c>
@@ -15075,7 +15082,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -15101,7 +15108,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>7</v>
       </c>
@@ -15127,7 +15134,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>7</v>
       </c>
@@ -15153,7 +15160,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>8</v>
       </c>
@@ -15179,7 +15186,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>14</v>
       </c>
@@ -15205,7 +15212,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>16</v>
       </c>
@@ -15231,7 +15238,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>21</v>
       </c>
@@ -15257,7 +15264,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>23</v>
       </c>
@@ -15283,7 +15290,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>28</v>
       </c>
@@ -15309,7 +15316,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>28</v>
       </c>
@@ -15335,7 +15342,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>28</v>
       </c>
@@ -15361,7 +15368,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31</v>
       </c>
@@ -15387,7 +15394,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>31</v>
       </c>
@@ -15413,7 +15420,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>35</v>
       </c>
@@ -15439,7 +15446,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>37</v>
       </c>
@@ -15465,7 +15472,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>37</v>
       </c>
@@ -15491,7 +15498,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>38</v>
       </c>
@@ -15517,7 +15524,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>38</v>
       </c>
@@ -15543,7 +15550,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>39</v>
       </c>
@@ -15569,7 +15576,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>41</v>
       </c>
@@ -15595,7 +15602,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>45</v>
       </c>
@@ -15621,7 +15628,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>46</v>
       </c>
@@ -15647,7 +15654,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>49</v>
       </c>
@@ -15673,147 +15680,147 @@
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
       <c r="C26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B27" s="15"/>
       <c r="C27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="15"/>
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="15"/>
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
     </row>
@@ -15830,22 +15837,22 @@
       <selection activeCell="D51" sqref="D51:L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -15883,7 +15890,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -15921,7 +15928,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>7</v>
       </c>
@@ -15959,7 +15966,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>7</v>
       </c>
@@ -15997,7 +16004,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>7</v>
       </c>
@@ -16035,7 +16042,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>7</v>
       </c>
@@ -16073,7 +16080,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>7</v>
       </c>
@@ -16111,7 +16118,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -16149,7 +16156,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -16183,7 +16190,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>7</v>
       </c>
@@ -16221,7 +16228,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -16259,7 +16266,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -16297,7 +16304,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>14</v>
       </c>
@@ -16335,7 +16342,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>16</v>
       </c>
@@ -16373,7 +16380,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>21</v>
       </c>
@@ -16411,7 +16418,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>23</v>
       </c>
@@ -16449,7 +16456,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>28</v>
       </c>
@@ -16481,7 +16488,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>28</v>
       </c>
@@ -16513,7 +16520,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>28</v>
       </c>
@@ -16545,7 +16552,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>28</v>
       </c>
@@ -16577,7 +16584,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>28</v>
       </c>
@@ -16609,7 +16616,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>28</v>
       </c>
@@ -16641,7 +16648,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>31</v>
       </c>
@@ -16679,7 +16686,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>31</v>
       </c>
@@ -16717,7 +16724,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31</v>
       </c>
@@ -16755,7 +16762,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>31</v>
       </c>
@@ -16793,7 +16800,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>37</v>
       </c>
@@ -16831,7 +16838,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>37</v>
       </c>
@@ -16869,7 +16876,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>37</v>
       </c>
@@ -16907,7 +16914,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>37</v>
       </c>
@@ -16945,7 +16952,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>35</v>
       </c>
@@ -16983,7 +16990,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>38</v>
       </c>
@@ -17021,7 +17028,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>38</v>
       </c>
@@ -17059,7 +17066,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>39</v>
       </c>
@@ -17097,7 +17104,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>39</v>
       </c>
@@ -17135,7 +17142,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>39</v>
       </c>
@@ -17173,7 +17180,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>39</v>
       </c>
@@ -17211,7 +17218,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>39</v>
       </c>
@@ -17249,7 +17256,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>39</v>
       </c>
@@ -17287,7 +17294,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -17325,7 +17332,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -17363,7 +17370,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>39</v>
       </c>
@@ -17401,7 +17408,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>39</v>
       </c>
@@ -17439,7 +17446,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>39</v>
       </c>
@@ -17477,7 +17484,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>39</v>
       </c>
@@ -17515,7 +17522,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>39</v>
       </c>
@@ -17553,7 +17560,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>39</v>
       </c>
@@ -17591,7 +17598,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
         <v>39</v>
       </c>
@@ -17629,7 +17636,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
         <v>41</v>
       </c>
@@ -17663,7 +17670,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
         <v>45</v>
       </c>
@@ -17701,7 +17708,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>46</v>
       </c>
@@ -17739,7 +17746,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>46</v>
       </c>
@@ -17777,7 +17784,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
         <v>49</v>
       </c>
@@ -17815,55 +17822,55 @@
         <v>356</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
     </row>
@@ -17880,16 +17887,16 @@
       <selection activeCell="A37" sqref="A37:C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
@@ -17903,7 +17910,7 @@
       <c r="E1" s="50"/>
       <c r="F1" s="50"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="50"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -17921,7 +17928,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -17941,7 +17948,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -17961,7 +17968,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>5</v>
       </c>
@@ -17981,7 +17988,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -17999,7 +18006,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -18019,7 +18026,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>5</v>
       </c>
@@ -18037,7 +18044,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>5</v>
       </c>
@@ -18055,7 +18062,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>5</v>
       </c>
@@ -18073,7 +18080,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -18093,7 +18100,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>15</v>
       </c>
@@ -18113,7 +18120,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>15</v>
       </c>
@@ -18133,7 +18140,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>18</v>
       </c>
@@ -18151,7 +18158,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>19</v>
       </c>
@@ -18169,7 +18176,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>21</v>
       </c>
@@ -18189,7 +18196,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>22</v>
       </c>
@@ -18207,7 +18214,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>22</v>
       </c>
@@ -18225,7 +18232,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>23</v>
       </c>
@@ -18245,7 +18252,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>23</v>
       </c>
@@ -18268,7 +18275,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>23</v>
       </c>
@@ -18288,7 +18295,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>23</v>
       </c>
@@ -18308,7 +18315,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>23</v>
       </c>
@@ -18328,7 +18335,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>24</v>
       </c>
@@ -18348,7 +18355,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -18368,7 +18375,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -18388,7 +18395,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -18405,7 +18412,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -18422,7 +18429,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -18439,7 +18446,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -18456,7 +18463,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>27</v>
       </c>
@@ -18473,7 +18480,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>27</v>
       </c>
@@ -18490,7 +18497,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -18507,7 +18514,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
@@ -18524,7 +18531,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>32</v>
       </c>
@@ -18542,7 +18549,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>33</v>
       </c>
@@ -18560,7 +18567,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>34</v>
       </c>
@@ -18578,7 +18585,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>34</v>
       </c>
@@ -18596,7 +18603,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>34</v>
       </c>
@@ -18614,7 +18621,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>37</v>
       </c>
@@ -18632,7 +18639,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -18650,7 +18657,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>43</v>
       </c>
@@ -18668,7 +18675,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>46</v>
       </c>
@@ -18685,7 +18692,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>46</v>
       </c>
@@ -18702,7 +18709,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>47</v>
       </c>
@@ -18719,7 +18726,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>49</v>
       </c>
@@ -18737,7 +18744,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>49</v>
       </c>
@@ -18755,75 +18762,75 @@
         <v>576</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
@@ -18841,25 +18848,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D7C4D6-1FBC-FA43-8D56-D815B6D49029}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="63.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -18891,7 +18898,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -18909,7 +18916,7 @@
       <c r="I2" s="27"/>
       <c r="J2" s="37"/>
     </row>
-    <row r="3" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -18935,7 +18942,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -18961,7 +18968,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>5</v>
       </c>
@@ -18990,7 +18997,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -19019,7 +19026,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -19048,7 +19055,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -19077,7 +19084,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -19106,7 +19113,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -19135,7 +19142,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -19164,7 +19171,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -19193,7 +19200,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>5</v>
       </c>
@@ -19222,7 +19229,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>5</v>
       </c>
@@ -19251,7 +19258,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>5</v>
       </c>
@@ -19280,7 +19287,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>5</v>
       </c>
@@ -19309,7 +19316,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>5</v>
       </c>
@@ -19338,7 +19345,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>5</v>
       </c>
@@ -19367,7 +19374,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>5</v>
       </c>
@@ -19396,7 +19403,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>5</v>
       </c>
@@ -19425,7 +19432,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>5</v>
       </c>
@@ -19454,7 +19461,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>5</v>
       </c>
@@ -19483,7 +19490,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>7</v>
       </c>
@@ -19507,7 +19514,7 @@
       </c>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>15</v>
       </c>
@@ -19536,7 +19543,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>15</v>
       </c>
@@ -19568,7 +19575,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>15</v>
       </c>
@@ -19600,7 +19607,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>15</v>
       </c>
@@ -19632,7 +19639,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>18</v>
       </c>
@@ -19661,7 +19668,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>19</v>
       </c>
@@ -19690,7 +19697,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>21</v>
       </c>
@@ -19719,7 +19726,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>21</v>
       </c>
@@ -19748,7 +19755,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>21</v>
       </c>
@@ -19777,7 +19784,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>21</v>
       </c>
@@ -19806,7 +19813,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>21</v>
       </c>
@@ -19835,7 +19842,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>21</v>
       </c>
@@ -19864,7 +19871,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>21</v>
       </c>
@@ -19893,7 +19900,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>21</v>
       </c>
@@ -19922,7 +19929,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>21</v>
       </c>
@@ -19951,7 +19958,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>21</v>
       </c>
@@ -19980,7 +19987,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>21</v>
       </c>
@@ -20009,7 +20016,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>21</v>
       </c>
@@ -20038,7 +20045,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>22</v>
       </c>
@@ -20067,7 +20074,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>22</v>
       </c>
@@ -20096,7 +20103,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>22</v>
       </c>
@@ -20125,7 +20132,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>23</v>
       </c>
@@ -20154,7 +20161,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>23</v>
       </c>
@@ -20183,7 +20190,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>23</v>
       </c>
@@ -20212,7 +20219,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>23</v>
       </c>
@@ -20241,7 +20248,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="49" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>23</v>
       </c>
@@ -20270,7 +20277,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>23</v>
       </c>
@@ -20299,7 +20306,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>24</v>
       </c>
@@ -20328,7 +20335,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>24</v>
       </c>
@@ -20357,7 +20364,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="53" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>24</v>
       </c>
@@ -20386,7 +20393,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="14" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>25</v>
       </c>
@@ -20415,7 +20422,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26</v>
       </c>
@@ -20444,7 +20451,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>26</v>
       </c>
@@ -20473,7 +20480,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>26</v>
       </c>
@@ -20502,7 +20509,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>27</v>
       </c>
@@ -20531,7 +20538,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>27</v>
       </c>
@@ -20560,7 +20567,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>27</v>
       </c>
@@ -20589,7 +20596,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>27</v>
       </c>
@@ -20618,7 +20625,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>30</v>
       </c>
@@ -20647,7 +20654,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>30</v>
       </c>
@@ -20676,7 +20683,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>30</v>
       </c>
@@ -20705,7 +20712,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>32</v>
       </c>
@@ -20735,7 +20742,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>33</v>
       </c>
@@ -20765,7 +20772,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>33</v>
       </c>
@@ -20795,7 +20802,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>33</v>
       </c>
@@ -20825,7 +20832,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>34</v>
       </c>
@@ -20855,7 +20862,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>34</v>
       </c>
@@ -20885,7 +20892,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>34</v>
       </c>
@@ -20915,7 +20922,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>34</v>
       </c>
@@ -20945,7 +20952,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>34</v>
       </c>
@@ -20975,7 +20982,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
         <v>34</v>
       </c>
@@ -21005,7 +21012,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
         <v>34</v>
       </c>
@@ -21035,7 +21042,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
         <v>37</v>
       </c>
@@ -21065,7 +21072,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>39</v>
       </c>
@@ -21095,7 +21102,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>43</v>
       </c>
@@ -21125,7 +21132,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
         <v>43</v>
       </c>
@@ -21155,7 +21162,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
         <v>43</v>
       </c>
@@ -21185,7 +21192,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>46</v>
       </c>
@@ -21214,7 +21221,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>46</v>
       </c>
@@ -21243,7 +21250,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>46</v>
       </c>
@@ -21272,7 +21279,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>47</v>
       </c>
@@ -21301,7 +21308,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="11">
         <v>49</v>
       </c>
@@ -21331,7 +21338,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="11">
         <v>49</v>
       </c>
@@ -21374,19 +21381,19 @@
       <selection activeCell="A64" sqref="A64:C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>116</v>
       </c>
@@ -21412,7 +21419,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -21426,7 +21433,7 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -21453,7 +21460,7 @@
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -21480,7 +21487,7 @@
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>5</v>
       </c>
@@ -21507,7 +21514,7 @@
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -21534,7 +21541,7 @@
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -21561,7 +21568,7 @@
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>5</v>
       </c>
@@ -21588,7 +21595,7 @@
       </c>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -21615,7 +21622,7 @@
       </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>5</v>
       </c>
@@ -21642,7 +21649,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>5</v>
       </c>
@@ -21669,7 +21676,7 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>5</v>
       </c>
@@ -21696,7 +21703,7 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>5</v>
       </c>
@@ -21723,7 +21730,7 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>5</v>
       </c>
@@ -21750,7 +21757,7 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>5</v>
       </c>
@@ -21777,7 +21784,7 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>5</v>
       </c>
@@ -21804,7 +21811,7 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>5</v>
       </c>
@@ -21831,7 +21838,7 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>5</v>
       </c>
@@ -21858,7 +21865,7 @@
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>5</v>
       </c>
@@ -21885,7 +21892,7 @@
       </c>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>5</v>
       </c>
@@ -21912,7 +21919,7 @@
       </c>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>5</v>
       </c>
@@ -21939,7 +21946,7 @@
       </c>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>7</v>
       </c>
@@ -21963,7 +21970,7 @@
       </c>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>15</v>
       </c>
@@ -21989,7 +21996,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>15</v>
       </c>
@@ -22015,7 +22022,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>18</v>
       </c>
@@ -22041,7 +22048,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>19</v>
       </c>
@@ -22067,7 +22074,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>21</v>
       </c>
@@ -22094,7 +22101,7 @@
       </c>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>21</v>
       </c>
@@ -22121,7 +22128,7 @@
       </c>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>21</v>
       </c>
@@ -22148,7 +22155,7 @@
       </c>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>21</v>
       </c>
@@ -22175,7 +22182,7 @@
       </c>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>21</v>
       </c>
@@ -22202,7 +22209,7 @@
       </c>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>21</v>
       </c>
@@ -22229,7 +22236,7 @@
       </c>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>21</v>
       </c>
@@ -22256,7 +22263,7 @@
       </c>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>21</v>
       </c>
@@ -22283,7 +22290,7 @@
       </c>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>21</v>
       </c>
@@ -22310,7 +22317,7 @@
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>21</v>
       </c>
@@ -22337,7 +22344,7 @@
       </c>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>21</v>
       </c>
@@ -22364,7 +22371,7 @@
       </c>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="14">
         <v>21</v>
       </c>
@@ -22391,7 +22398,7 @@
       </c>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>22</v>
       </c>
@@ -22417,7 +22424,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="14">
         <v>22</v>
       </c>
@@ -22443,7 +22450,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>22</v>
       </c>
@@ -22469,7 +22476,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="14">
         <v>23</v>
       </c>
@@ -22495,7 +22502,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="14">
         <v>23</v>
       </c>
@@ -22521,7 +22528,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="14">
         <v>23</v>
       </c>
@@ -22547,7 +22554,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="14">
         <v>23</v>
       </c>
@@ -22573,7 +22580,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="14">
         <v>23</v>
       </c>
@@ -22599,7 +22606,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="14">
         <v>23</v>
       </c>
@@ -22625,7 +22632,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="14">
         <v>24</v>
       </c>
@@ -22652,7 +22659,7 @@
       </c>
       <c r="I48" s="7"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="14">
         <v>24</v>
       </c>
@@ -22679,7 +22686,7 @@
       </c>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>24</v>
       </c>
@@ -22706,7 +22713,7 @@
       </c>
       <c r="I50" s="7"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>25</v>
       </c>
@@ -22732,7 +22739,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>26</v>
       </c>
@@ -22756,7 +22763,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>26</v>
       </c>
@@ -22782,7 +22789,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
@@ -22808,7 +22815,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>27</v>
       </c>
@@ -22834,7 +22841,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>27</v>
       </c>
@@ -22860,7 +22867,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>27</v>
       </c>
@@ -22886,7 +22893,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>27</v>
       </c>
@@ -22912,7 +22919,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>30</v>
       </c>
@@ -22938,7 +22945,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>30</v>
       </c>
@@ -22964,7 +22971,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>30</v>
       </c>
@@ -22990,7 +22997,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
         <v>32</v>
       </c>
@@ -23016,7 +23023,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
         <v>33</v>
       </c>
@@ -23042,7 +23049,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
         <v>34</v>
       </c>
@@ -23068,7 +23075,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
         <v>34</v>
       </c>
@@ -23094,7 +23101,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
         <v>34</v>
       </c>
@@ -23120,7 +23127,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
         <v>34</v>
       </c>
@@ -23146,7 +23153,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
         <v>34</v>
       </c>
@@ -23172,7 +23179,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
         <v>37</v>
       </c>
@@ -23198,7 +23205,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
         <v>39</v>
       </c>
@@ -23224,7 +23231,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
         <v>43</v>
       </c>
@@ -23250,7 +23257,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
         <v>43</v>
       </c>
@@ -23276,7 +23283,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
         <v>43</v>
       </c>
@@ -23302,7 +23309,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>46</v>
       </c>
@@ -23328,7 +23335,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>46</v>
       </c>
@@ -23354,7 +23361,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>47</v>
       </c>
@@ -23380,7 +23387,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
         <v>49</v>
       </c>
@@ -23406,7 +23413,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
         <v>49</v>
       </c>
@@ -23441,39 +23448,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757F64B5-E536-2342-B5E0-205055B80BBA}">
   <dimension ref="A1:Z57"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:O38"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="64.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="64.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
@@ -23507,7 +23514,7 @@
       <c r="Y1" s="50"/>
       <c r="Z1" s="50"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="50"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -23585,7 +23592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -23653,7 +23660,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -23707,7 +23714,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -23761,7 +23768,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -23820,7 +23827,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -23879,7 +23886,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -23938,7 +23945,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -23997,7 +24004,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="136" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="126" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -24056,7 +24063,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -24115,7 +24122,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -24172,7 +24179,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="136" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="126" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -24231,7 +24238,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -24288,7 +24295,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -24347,7 +24354,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -24406,7 +24413,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -24465,7 +24472,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -24524,7 +24531,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -24583,7 +24590,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="238" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -24639,7 +24646,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>935</v>
       </c>
@@ -24695,7 +24702,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>987</v>
       </c>
@@ -24751,7 +24758,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1032</v>
       </c>
@@ -24810,7 +24817,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>874</v>
       </c>
@@ -24867,7 +24874,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -24926,7 +24933,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -24985,7 +24992,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="30" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" s="30" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
         <v>47</v>
       </c>
@@ -25044,7 +25051,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="30" customFormat="1" ht="323" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" s="30" customFormat="1" ht="283.5" x14ac:dyDescent="0.25">
       <c r="A28" s="28" t="s">
         <v>49</v>
       </c>
@@ -25103,7 +25110,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="30" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" s="30" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>49</v>
       </c>
@@ -25160,7 +25167,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="30" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>890</v>
       </c>
@@ -25219,7 +25226,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>894</v>
       </c>
@@ -25278,7 +25285,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>894</v>
       </c>
@@ -25337,7 +25344,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>904</v>
       </c>
@@ -25396,7 +25403,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>911</v>
       </c>
@@ -25455,7 +25462,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="35" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>911</v>
       </c>
@@ -25514,7 +25521,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="1:26" ht="221" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>1052</v>
       </c>
@@ -25570,7 +25577,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1079</v>
       </c>
@@ -25626,7 +25633,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1079</v>
       </c>
@@ -25682,7 +25689,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -25693,7 +25700,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -25704,7 +25711,7 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -25715,7 +25722,7 @@
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -25726,7 +25733,7 @@
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -25737,7 +25744,7 @@
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -25748,7 +25755,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -25759,7 +25766,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -25770,7 +25777,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -25781,7 +25788,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -25792,7 +25799,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -25803,7 +25810,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -25814,7 +25821,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -25825,7 +25832,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -25836,7 +25843,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -25847,7 +25854,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -25858,7 +25865,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -25869,7 +25876,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -25880,7 +25887,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -25928,18 +25935,18 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -25962,7 +25969,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -25982,7 +25989,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -26002,7 +26009,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -26022,7 +26029,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>9</v>
       </c>
@@ -26042,7 +26049,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>10</v>
       </c>
@@ -26062,7 +26069,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>10</v>
       </c>
@@ -26082,7 +26089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>11</v>
       </c>
@@ -26102,7 +26109,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>12</v>
       </c>
@@ -26122,7 +26129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>12</v>
       </c>
@@ -26142,7 +26149,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>14</v>
       </c>
@@ -26162,7 +26169,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>14</v>
       </c>
@@ -26182,7 +26189,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>14</v>
       </c>
@@ -26202,7 +26209,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>17</v>
       </c>
@@ -26222,7 +26229,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>17</v>
       </c>
@@ -26242,7 +26249,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>17</v>
       </c>
@@ -26262,7 +26269,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>18</v>
       </c>
@@ -26282,7 +26289,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>18</v>
       </c>
@@ -26302,7 +26309,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>21</v>
       </c>
@@ -26322,7 +26329,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>28</v>
       </c>
@@ -26342,7 +26349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>28</v>
       </c>
@@ -26362,7 +26369,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>28</v>
       </c>
@@ -26382,7 +26389,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>28</v>
       </c>
@@ -26402,7 +26409,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>30</v>
       </c>
@@ -26422,7 +26429,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>31</v>
       </c>
@@ -26442,7 +26449,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>32</v>
       </c>
@@ -26462,7 +26469,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>33</v>
       </c>
@@ -26482,7 +26489,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>33</v>
       </c>
@@ -26502,7 +26509,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>33</v>
       </c>
@@ -26522,7 +26529,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>38</v>
       </c>
@@ -26542,7 +26549,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>38</v>
       </c>
@@ -26562,7 +26569,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>40</v>
       </c>
@@ -26582,7 +26589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
         <v>42</v>
       </c>
@@ -26602,7 +26609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>42</v>
       </c>
@@ -26622,7 +26629,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>43</v>
       </c>
@@ -26642,7 +26649,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>44</v>
       </c>
@@ -26662,7 +26669,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>44</v>
       </c>
@@ -26682,7 +26689,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>46</v>
       </c>
@@ -26702,7 +26709,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>47</v>
       </c>
@@ -26722,7 +26729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>47</v>
       </c>
@@ -26763,21 +26770,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95D161D-0734-F640-80B6-D16F5E2C8C39}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>116</v>
       </c>
@@ -26797,7 +26804,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>28</v>
       </c>
@@ -26817,7 +26824,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -26837,7 +26844,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -26857,7 +26864,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>9</v>
       </c>
@@ -26877,7 +26884,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>10</v>
       </c>
@@ -26897,7 +26904,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>10</v>
       </c>
@@ -26917,7 +26924,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>11</v>
       </c>
@@ -26937,7 +26944,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>12</v>
       </c>
@@ -26957,7 +26964,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>12</v>
       </c>
@@ -26977,7 +26984,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>14</v>
       </c>
@@ -26997,7 +27004,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>14</v>
       </c>
@@ -27017,7 +27024,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>14</v>
       </c>
@@ -27037,7 +27044,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>14</v>
       </c>
@@ -27050,14 +27057,14 @@
       <c r="D14" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="52">
         <v>20000</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>17</v>
       </c>
@@ -27077,7 +27084,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>17</v>
       </c>
@@ -27097,7 +27104,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>17</v>
       </c>
@@ -27117,7 +27124,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>18</v>
       </c>
@@ -27137,7 +27144,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -27157,7 +27164,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>21</v>
       </c>
@@ -27177,7 +27184,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>28</v>
       </c>
@@ -27197,7 +27204,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>28</v>
       </c>
@@ -27217,7 +27224,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>28</v>
       </c>
@@ -27237,7 +27244,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>28</v>
       </c>
@@ -27257,7 +27264,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>28</v>
       </c>
@@ -27277,7 +27284,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>28</v>
       </c>
@@ -27297,7 +27304,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>30</v>
       </c>
@@ -27317,7 +27324,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>31</v>
       </c>
@@ -27337,7 +27344,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>31</v>
       </c>
@@ -27357,7 +27364,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -27377,7 +27384,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -27397,7 +27404,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>32</v>
       </c>
@@ -27417,7 +27424,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14">
         <v>33</v>
       </c>
@@ -27437,7 +27444,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -27457,7 +27464,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>33</v>
       </c>
@@ -27477,7 +27484,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="14">
         <v>38</v>
       </c>
@@ -27497,7 +27504,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>38</v>
       </c>
@@ -27517,7 +27524,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>40</v>
       </c>
@@ -27537,7 +27544,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>42</v>
       </c>
@@ -27557,7 +27564,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>42</v>
       </c>
@@ -27577,7 +27584,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>42</v>
       </c>
@@ -27597,7 +27604,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>42</v>
       </c>
@@ -27617,7 +27624,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>43</v>
       </c>
@@ -27637,7 +27644,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>44</v>
       </c>
@@ -27657,7 +27664,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -27677,7 +27684,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -27697,7 +27704,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>44</v>
       </c>
@@ -27717,7 +27724,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>46</v>
       </c>
@@ -27737,7 +27744,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>47</v>
       </c>
@@ -27757,7 +27764,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>47</v>
       </c>

--- a/Raw Input Data/Processing/Masking_Tool_Input_Excel_v4_Consolidated.xlsx
+++ b/Raw Input Data/Processing/Masking_Tool_Input_Excel_v4_Consolidated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\hase-scripts\Raw Input Data\Processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCC03A5-D716-4E1C-8457-359EBE4B7D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33ADE617-DE5B-4A5A-9218-FD5E80206F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" firstSheet="7" activeTab="8" xr2:uid="{62A6D20C-1BCA-9641-AAE7-542CC13A6031}"/>
+    <workbookView xWindow="-28920" yWindow="6690" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="4" xr2:uid="{62A6D20C-1BCA-9641-AAE7-542CC13A6031}"/>
   </bookViews>
   <sheets>
     <sheet name="ADCC_General" sheetId="1" r:id="rId1"/>
@@ -4012,6 +4012,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4020,9 +4023,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4391,13 +4391,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="50"/>
+      <c r="C1" s="51"/>
       <c r="D1" t="s">
         <v>101</v>
       </c>
@@ -4406,7 +4406,7 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -6739,45 +6739,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="50" t="s">
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -9044,63 +9044,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50" t="s">
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="50"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="50"/>
-      <c r="AR1" s="50"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -17883,8 +17883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076D9341-D6CA-5944-B0B0-C319BEDB9FF1}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -17897,21 +17897,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -18848,8 +18848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D7C4D6-1FBC-FA43-8D56-D815B6D49029}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21377,8 +21377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5908E7C3-AF9B-C045-9C8C-7C39702D5D07}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:C68"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -23481,41 +23481,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
@@ -26770,8 +26770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C95D161D-0734-F640-80B6-D16F5E2C8C39}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27057,7 +27057,7 @@
       <c r="D14" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="E14" s="52">
+      <c r="E14" s="49">
         <v>20000</v>
       </c>
       <c r="F14" s="14" t="s">
